--- a/data_out2020/Scaled group scores - overtime (no weighting).xlsx
+++ b/data_out2020/Scaled group scores - overtime (no weighting).xlsx
@@ -703,31 +703,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>59.5650460883451</v>
+        <v>59.5650460889345</v>
       </c>
       <c r="D2" t="n">
-        <v>59.6845767690952</v>
+        <v>59.6845767696446</v>
       </c>
       <c r="E2" t="n">
-        <v>58.8798275033137</v>
+        <v>58.8798275038611</v>
       </c>
       <c r="F2" t="n">
-        <v>60.8498526928432</v>
+        <v>60.8498526933921</v>
       </c>
       <c r="G2" t="n">
-        <v>63.0964817278066</v>
+        <v>63.0964817283558</v>
       </c>
       <c r="H2" t="n">
-        <v>63.521218236054</v>
+        <v>63.5212182366012</v>
       </c>
       <c r="I2" t="n">
-        <v>63.2062513424457</v>
+        <v>63.2062513430006</v>
       </c>
       <c r="J2" t="n">
-        <v>63.2056976026651</v>
+        <v>63.20569760322</v>
       </c>
       <c r="K2" t="n">
-        <v>6.1120602658818</v>
+        <v>6.11206026576356</v>
       </c>
     </row>
     <row r="3">
@@ -738,31 +738,31 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>52.0060234068468</v>
+        <v>52.0060234074355</v>
       </c>
       <c r="D3" t="n">
-        <v>52.7219309152306</v>
+        <v>52.7219309157693</v>
       </c>
       <c r="E3" t="n">
-        <v>52.1482534456115</v>
+        <v>52.1482534461946</v>
       </c>
       <c r="F3" t="n">
-        <v>52.1237256346972</v>
+        <v>52.1237256352796</v>
       </c>
       <c r="G3" t="n">
-        <v>52.1058852543264</v>
+        <v>52.1058852549084</v>
       </c>
       <c r="H3" t="n">
-        <v>51.8406223088647</v>
+        <v>51.8406223094469</v>
       </c>
       <c r="I3" t="n">
-        <v>52.1110765882489</v>
+        <v>52.1110765888323</v>
       </c>
       <c r="J3" t="n">
-        <v>52.1192019242017</v>
+        <v>52.1192019247852</v>
       </c>
       <c r="K3" t="n">
-        <v>0.217625786285525</v>
+        <v>0.217625786272935</v>
       </c>
     </row>
     <row r="4">
@@ -773,31 +773,31 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>49.8198037907002</v>
+        <v>49.8198037911858</v>
       </c>
       <c r="D4" t="n">
-        <v>49.9330698660961</v>
+        <v>49.9330698665994</v>
       </c>
       <c r="E4" t="n">
-        <v>48.9285223314986</v>
+        <v>48.9285223319664</v>
       </c>
       <c r="F4" t="n">
-        <v>48.5416267668756</v>
+        <v>48.5416267673423</v>
       </c>
       <c r="G4" t="n">
-        <v>48.0437623603842</v>
+        <v>48.0437623608479</v>
       </c>
       <c r="H4" t="n">
-        <v>46.9533924816004</v>
+        <v>46.953392482061</v>
       </c>
       <c r="I4" t="n">
-        <v>46.8266832983279</v>
+        <v>46.8266832987892</v>
       </c>
       <c r="J4" t="n">
-        <v>46.8307258021827</v>
+        <v>46.830725802644</v>
       </c>
       <c r="K4" t="n">
-        <v>-5.9997787246916</v>
+        <v>-5.99977872468175</v>
       </c>
     </row>
     <row r="5">
@@ -808,31 +808,31 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>54.2843204144044</v>
+        <v>54.2843204149054</v>
       </c>
       <c r="D5" t="n">
-        <v>55.420869435196</v>
+        <v>55.4208694356445</v>
       </c>
       <c r="E5" t="n">
-        <v>55.7564399127553</v>
+        <v>55.7564399132156</v>
       </c>
       <c r="F5" t="n">
-        <v>55.0721299732731</v>
+        <v>55.0721299737313</v>
       </c>
       <c r="G5" t="n">
-        <v>55.0823161093514</v>
+        <v>55.0823161098064</v>
       </c>
       <c r="H5" t="n">
-        <v>55.4278680784854</v>
+        <v>55.4278680789417</v>
       </c>
       <c r="I5" t="n">
-        <v>55.7017052362756</v>
+        <v>55.7017052367323</v>
       </c>
       <c r="J5" t="n">
-        <v>55.6847520616343</v>
+        <v>55.6847520620909</v>
       </c>
       <c r="K5" t="n">
-        <v>2.57980874871244</v>
+        <v>2.57980874860702</v>
       </c>
     </row>
     <row r="6">
@@ -843,31 +843,31 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>45.3676403535783</v>
+        <v>45.3676403540495</v>
       </c>
       <c r="D6" t="n">
-        <v>44.8942738223201</v>
+        <v>44.8942738228954</v>
       </c>
       <c r="E6" t="n">
-        <v>44.1816609228603</v>
+        <v>44.1816609234334</v>
       </c>
       <c r="F6" t="n">
-        <v>44.4529291016123</v>
+        <v>44.4529291021838</v>
       </c>
       <c r="G6" t="n">
-        <v>44.3400873643091</v>
+        <v>44.3400873648822</v>
       </c>
       <c r="H6" t="n">
-        <v>44.5869290864356</v>
+        <v>44.5869290870094</v>
       </c>
       <c r="I6" t="n">
-        <v>44.6072708252935</v>
+        <v>44.6072708258688</v>
       </c>
       <c r="J6" t="n">
-        <v>44.6059714474829</v>
+        <v>44.6059714480582</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.67888146740551</v>
+        <v>-1.67888146715858</v>
       </c>
     </row>
     <row r="7">
@@ -878,31 +878,31 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>49.3139851717705</v>
+        <v>49.3139851722547</v>
       </c>
       <c r="D7" t="n">
-        <v>49.4662511743861</v>
+        <v>49.4662511749018</v>
       </c>
       <c r="E7" t="n">
-        <v>48.8914232410044</v>
+        <v>48.891423241508</v>
       </c>
       <c r="F7" t="n">
-        <v>48.6673569508352</v>
+        <v>48.6673569513373</v>
       </c>
       <c r="G7" t="n">
-        <v>48.430384343678</v>
+        <v>48.4303843441787</v>
       </c>
       <c r="H7" t="n">
-        <v>48.1663139139993</v>
+        <v>48.1663139144994</v>
       </c>
       <c r="I7" t="n">
-        <v>48.1893984571744</v>
+        <v>48.1893984576753</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1864341956567</v>
+        <v>48.1864341961576</v>
       </c>
       <c r="K7" t="n">
-        <v>-2.28647304042927</v>
+        <v>-2.28647304037289</v>
       </c>
     </row>
     <row r="8">
@@ -913,31 +913,31 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>66.0609671927948</v>
+        <v>66.0609671931674</v>
       </c>
       <c r="D8" t="n">
-        <v>67.0598725713245</v>
+        <v>67.0598725718272</v>
       </c>
       <c r="E8" t="n">
-        <v>64.5778934854735</v>
+        <v>64.5778934859717</v>
       </c>
       <c r="F8" t="n">
-        <v>64.4003019939712</v>
+        <v>64.4003019944684</v>
       </c>
       <c r="G8" t="n">
-        <v>63.9901545905542</v>
+        <v>63.9901545910464</v>
       </c>
       <c r="H8" t="n">
-        <v>63.910295713608</v>
+        <v>63.9102957141023</v>
       </c>
       <c r="I8" t="n">
-        <v>63.8388815254656</v>
+        <v>63.8388815259611</v>
       </c>
       <c r="J8" t="n">
-        <v>63.8385533026405</v>
+        <v>63.8385533031359</v>
       </c>
       <c r="K8" t="n">
-        <v>-3.36418612169028</v>
+        <v>-3.36418612148531</v>
       </c>
     </row>
     <row r="9">
@@ -948,31 +948,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>76.0714971287191</v>
+        <v>76.0714971293322</v>
       </c>
       <c r="D9" t="n">
-        <v>77.7064355330297</v>
+        <v>77.7064355336482</v>
       </c>
       <c r="E9" t="n">
-        <v>77.8927626144465</v>
+        <v>77.8927626150661</v>
       </c>
       <c r="F9" t="n">
-        <v>79.5279255444215</v>
+        <v>79.5279255450422</v>
       </c>
       <c r="G9" t="n">
-        <v>80.6504220601761</v>
+        <v>80.6504220607937</v>
       </c>
       <c r="H9" t="n">
-        <v>80.5425619405808</v>
+        <v>80.5425619412015</v>
       </c>
       <c r="I9" t="n">
-        <v>80.5665281308779</v>
+        <v>80.5665281314998</v>
       </c>
       <c r="J9" t="n">
-        <v>80.5710691397634</v>
+        <v>80.5710691403852</v>
       </c>
       <c r="K9" t="n">
-        <v>5.91492501249262</v>
+        <v>5.91492501245654</v>
       </c>
     </row>
     <row r="10">
@@ -983,31 +983,31 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>28.9308496568295</v>
+        <v>28.9308496572501</v>
       </c>
       <c r="D10" t="n">
-        <v>28.6390024587661</v>
+        <v>28.6390024592249</v>
       </c>
       <c r="E10" t="n">
-        <v>28.2214782610408</v>
+        <v>28.2214782614423</v>
       </c>
       <c r="F10" t="n">
-        <v>27.6463383005515</v>
+        <v>27.6463383009599</v>
       </c>
       <c r="G10" t="n">
-        <v>27.2044770334211</v>
+        <v>27.2044770338285</v>
       </c>
       <c r="H10" t="n">
-        <v>27.3980625120302</v>
+        <v>27.3980625124392</v>
       </c>
       <c r="I10" t="n">
-        <v>26.7279628146197</v>
+        <v>26.727962815027</v>
       </c>
       <c r="J10" t="n">
-        <v>26.7155062797742</v>
+        <v>26.7155062801816</v>
       </c>
       <c r="K10" t="n">
-        <v>-7.65737406033056</v>
+        <v>-7.65737406026494</v>
       </c>
     </row>
     <row r="11">
@@ -1018,31 +1018,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>58.3552274593316</v>
+        <v>58.3552274598723</v>
       </c>
       <c r="D11" t="n">
-        <v>58.8944359992345</v>
+        <v>58.8944359997399</v>
       </c>
       <c r="E11" t="n">
-        <v>58.5025966901303</v>
+        <v>58.5025966906513</v>
       </c>
       <c r="F11" t="n">
-        <v>58.5745282325313</v>
+        <v>58.5745282330508</v>
       </c>
       <c r="G11" t="n">
-        <v>58.6103345640319</v>
+        <v>58.6103345645508</v>
       </c>
       <c r="H11" t="n">
-        <v>58.2404799088687</v>
+        <v>58.240479909387</v>
       </c>
       <c r="I11" t="n">
-        <v>58.6942067152917</v>
+        <v>58.694206715812</v>
       </c>
       <c r="J11" t="n">
-        <v>58.6934882028415</v>
+        <v>58.6934882033619</v>
       </c>
       <c r="K11" t="n">
-        <v>0.579657998498306</v>
+        <v>0.579657998458138</v>
       </c>
     </row>
     <row r="12">
@@ -1053,31 +1053,31 @@
         <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>2.68344775873476</v>
+        <v>2.68344775930803</v>
       </c>
       <c r="D12" t="n">
-        <v>3.7243893661397</v>
+        <v>3.72438936632266</v>
       </c>
       <c r="E12" t="n">
-        <v>3.45630836849686</v>
+        <v>3.45630836900841</v>
       </c>
       <c r="F12" t="n">
-        <v>3.24858142802339</v>
+        <v>3.24858142852963</v>
       </c>
       <c r="G12" t="n">
-        <v>3.69089362193503</v>
+        <v>3.69089362244069</v>
       </c>
       <c r="H12" t="n">
-        <v>3.56020775530321</v>
+        <v>3.56020775580991</v>
       </c>
       <c r="I12" t="n">
-        <v>3.22015449591057</v>
+        <v>3.22015449642412</v>
       </c>
       <c r="J12" t="n">
-        <v>3.21501380980796</v>
+        <v>3.21501381032161</v>
       </c>
       <c r="K12" t="n">
-        <v>19.809070228512</v>
+        <v>19.8090702220583</v>
       </c>
     </row>
     <row r="13">
@@ -1088,31 +1088,31 @@
         <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>65.4807309965584</v>
+        <v>65.4807309971082</v>
       </c>
       <c r="D13" t="n">
-        <v>71.2602968091907</v>
+        <v>71.2602968097339</v>
       </c>
       <c r="E13" t="n">
-        <v>73.8412707901104</v>
+        <v>73.841270790656</v>
       </c>
       <c r="F13" t="n">
-        <v>76.0211656486196</v>
+        <v>76.0211656491697</v>
       </c>
       <c r="G13" t="n">
-        <v>76.8154956999619</v>
+        <v>76.8154957005105</v>
       </c>
       <c r="H13" t="n">
-        <v>75.902643790759</v>
+        <v>75.9026437913107</v>
       </c>
       <c r="I13" t="n">
-        <v>77.437185282155</v>
+        <v>77.4371852827086</v>
       </c>
       <c r="J13" t="n">
-        <v>77.4446199619745</v>
+        <v>77.4446199625281</v>
       </c>
       <c r="K13" t="n">
-        <v>18.2708543159741</v>
+        <v>18.2708543158266</v>
       </c>
     </row>
     <row r="14">
@@ -1123,31 +1123,31 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>67.4873304475255</v>
+        <v>67.4873304483167</v>
       </c>
       <c r="D14" t="n">
-        <v>66.5464430857792</v>
+        <v>66.5464430865677</v>
       </c>
       <c r="E14" t="n">
-        <v>66.0722199446589</v>
+        <v>66.072219945446</v>
       </c>
       <c r="F14" t="n">
-        <v>64.4292840912094</v>
+        <v>64.4292840919982</v>
       </c>
       <c r="G14" t="n">
-        <v>63.7991194707902</v>
+        <v>63.7991194715727</v>
       </c>
       <c r="H14" t="n">
-        <v>62.5146792542824</v>
+        <v>62.5146792550594</v>
       </c>
       <c r="I14" t="n">
-        <v>61.983844374559</v>
+        <v>61.9838443753455</v>
       </c>
       <c r="J14" t="n">
-        <v>61.9823133253704</v>
+        <v>61.9823133261569</v>
       </c>
       <c r="K14" t="n">
-        <v>-8.15711198776119</v>
+        <v>-8.15711198767256</v>
       </c>
     </row>
     <row r="15">
@@ -1158,31 +1158,31 @@
         <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>40.518774720868</v>
+        <v>40.518774721361</v>
       </c>
       <c r="D15" t="n">
-        <v>39.5806326025961</v>
+        <v>39.5806326030533</v>
       </c>
       <c r="E15" t="n">
-        <v>38.9430703465076</v>
+        <v>38.9430703468783</v>
       </c>
       <c r="F15" t="n">
-        <v>38.8787747571729</v>
+        <v>38.8787747575413</v>
       </c>
       <c r="G15" t="n">
-        <v>38.3127145882511</v>
+        <v>38.3127145886196</v>
       </c>
       <c r="H15" t="n">
-        <v>37.094706921696</v>
+        <v>37.0947069220637</v>
       </c>
       <c r="I15" t="n">
-        <v>37.0474262565799</v>
+        <v>37.0474262569487</v>
       </c>
       <c r="J15" t="n">
-        <v>37.0425279129836</v>
+        <v>37.0425279133525</v>
       </c>
       <c r="K15" t="n">
-        <v>-8.57934829429612</v>
+        <v>-8.57934829449796</v>
       </c>
     </row>
     <row r="16">
@@ -1193,31 +1193,31 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>56.0360265437508</v>
+        <v>56.0360265442537</v>
       </c>
       <c r="D16" t="n">
-        <v>57.7947262161044</v>
+        <v>57.7947262166302</v>
       </c>
       <c r="E16" t="n">
-        <v>57.8871849945967</v>
+        <v>57.8871849951028</v>
       </c>
       <c r="F16" t="n">
-        <v>58.4099711432542</v>
+        <v>58.4099711437609</v>
       </c>
       <c r="G16" t="n">
-        <v>58.4659250565211</v>
+        <v>58.465925057027</v>
       </c>
       <c r="H16" t="n">
-        <v>58.6514848918787</v>
+        <v>58.6514848923877</v>
       </c>
       <c r="I16" t="n">
-        <v>58.7887773830716</v>
+        <v>58.7887773835815</v>
       </c>
       <c r="J16" t="n">
-        <v>58.7879681113749</v>
+        <v>58.7879681118848</v>
       </c>
       <c r="K16" t="n">
-        <v>4.91102195741064</v>
+        <v>4.91102195737896</v>
       </c>
     </row>
     <row r="17">
@@ -1228,31 +1228,31 @@
         <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>59.6917722194965</v>
+        <v>59.691772219527</v>
       </c>
       <c r="D17" t="n">
-        <v>58.2284165174642</v>
+        <v>58.2284165179501</v>
       </c>
       <c r="E17" t="n">
-        <v>58.1123975412806</v>
+        <v>58.1123975417855</v>
       </c>
       <c r="F17" t="n">
-        <v>59.6377312992187</v>
+        <v>59.6377312997226</v>
       </c>
       <c r="G17" t="n">
-        <v>60.5320280198248</v>
+        <v>60.5320280203273</v>
       </c>
       <c r="H17" t="n">
-        <v>61.036604575189</v>
+        <v>61.0366045756943</v>
       </c>
       <c r="I17" t="n">
-        <v>60.7668647971653</v>
+        <v>60.7668647976746</v>
       </c>
       <c r="J17" t="n">
-        <v>60.7603481826649</v>
+        <v>60.7603481831741</v>
       </c>
       <c r="K17" t="n">
-        <v>1.79015620316814</v>
+        <v>1.79015620396934</v>
       </c>
     </row>
     <row r="18">
@@ -1263,31 +1263,31 @@
         <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>47.4221250217756</v>
+        <v>47.4221250220917</v>
       </c>
       <c r="D18" t="n">
-        <v>49.9595516276947</v>
+        <v>49.9595516280175</v>
       </c>
       <c r="E18" t="n">
-        <v>51.0675592673929</v>
+        <v>51.0675592677193</v>
       </c>
       <c r="F18" t="n">
-        <v>51.1620984346013</v>
+        <v>51.162098434925</v>
       </c>
       <c r="G18" t="n">
-        <v>50.2197267786798</v>
+        <v>50.219726779002</v>
       </c>
       <c r="H18" t="n">
-        <v>48.9361752240715</v>
+        <v>48.9361752243929</v>
       </c>
       <c r="I18" t="n">
-        <v>49.4709452528386</v>
+        <v>49.4709452531622</v>
       </c>
       <c r="J18" t="n">
-        <v>49.5167462903631</v>
+        <v>49.5167462906868</v>
       </c>
       <c r="K18" t="n">
-        <v>4.41697049135952</v>
+        <v>4.41697049134619</v>
       </c>
     </row>
     <row r="19">
@@ -1298,31 +1298,31 @@
         <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>53.5721905995402</v>
+        <v>53.5721906000309</v>
       </c>
       <c r="D19" t="n">
-        <v>54.2819686700819</v>
+        <v>54.2819686706032</v>
       </c>
       <c r="E19" t="n">
-        <v>53.7252495696802</v>
+        <v>53.7252495701759</v>
       </c>
       <c r="F19" t="n">
-        <v>53.8157464896806</v>
+        <v>53.815746490176</v>
       </c>
       <c r="G19" t="n">
-        <v>53.6790805408408</v>
+        <v>53.6790805413357</v>
       </c>
       <c r="H19" t="n">
-        <v>54.1511825704317</v>
+        <v>54.1511825709296</v>
       </c>
       <c r="I19" t="n">
-        <v>53.9239753224412</v>
+        <v>53.9239753229396</v>
       </c>
       <c r="J19" t="n">
-        <v>53.9210154546968</v>
+        <v>53.9210154551952</v>
       </c>
       <c r="K19" t="n">
-        <v>0.651130467604166</v>
+        <v>0.651130467612671</v>
       </c>
     </row>
     <row r="20">
@@ -1333,31 +1333,31 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>31.2209162305181</v>
+        <v>31.2209162311214</v>
       </c>
       <c r="D20" t="n">
-        <v>37.0675833989815</v>
+        <v>37.067583399435</v>
       </c>
       <c r="E20" t="n">
-        <v>37.5604376096976</v>
+        <v>37.5604376103517</v>
       </c>
       <c r="F20" t="n">
-        <v>36.3117902828602</v>
+        <v>36.3117902835132</v>
       </c>
       <c r="G20" t="n">
-        <v>35.6655036649121</v>
+        <v>35.6655036655624</v>
       </c>
       <c r="H20" t="n">
-        <v>34.4320105459397</v>
+        <v>34.4320105465898</v>
       </c>
       <c r="I20" t="n">
-        <v>35.7455031865943</v>
+        <v>35.7455031872444</v>
       </c>
       <c r="J20" t="n">
-        <v>35.7453158391232</v>
+        <v>35.7453158397733</v>
       </c>
       <c r="K20" t="n">
-        <v>14.4915657669987</v>
+        <v>14.4915657668685</v>
       </c>
     </row>
     <row r="21">
@@ -1368,31 +1368,31 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>51.7427997380442</v>
+        <v>51.7427997385252</v>
       </c>
       <c r="D21" t="n">
-        <v>52.0712568806012</v>
+        <v>52.0712568811327</v>
       </c>
       <c r="E21" t="n">
-        <v>50.8371988794787</v>
+        <v>50.8371988799901</v>
       </c>
       <c r="F21" t="n">
-        <v>50.2785101413199</v>
+        <v>50.2785101418301</v>
       </c>
       <c r="G21" t="n">
-        <v>50.3926485293869</v>
+        <v>50.3926485298954</v>
       </c>
       <c r="H21" t="n">
-        <v>50.1938767843987</v>
+        <v>50.1938767849071</v>
       </c>
       <c r="I21" t="n">
-        <v>50.3730994608595</v>
+        <v>50.3730994613704</v>
       </c>
       <c r="J21" t="n">
-        <v>50.3652369314526</v>
+        <v>50.3652369319635</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.66232753845124</v>
+        <v>-2.66232753836856</v>
       </c>
     </row>
     <row r="22">
@@ -1403,31 +1403,31 @@
         <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>27.9298819244645</v>
+        <v>27.9298819249442</v>
       </c>
       <c r="D22" t="n">
-        <v>27.3027584504357</v>
+        <v>27.3027584508965</v>
       </c>
       <c r="E22" t="n">
-        <v>26.6282614822102</v>
+        <v>26.6282614826244</v>
       </c>
       <c r="F22" t="n">
-        <v>26.2483322401357</v>
+        <v>26.248332240552</v>
       </c>
       <c r="G22" t="n">
-        <v>25.5861872854845</v>
+        <v>25.5861872859008</v>
       </c>
       <c r="H22" t="n">
-        <v>25.0805392752311</v>
+        <v>25.0805392756485</v>
       </c>
       <c r="I22" t="n">
-        <v>24.5936231872789</v>
+        <v>24.5936231876961</v>
       </c>
       <c r="J22" t="n">
-        <v>24.5914237876682</v>
+        <v>24.5914237880854</v>
       </c>
       <c r="K22" t="n">
-        <v>-11.9529976740504</v>
+        <v>-11.9529976740688</v>
       </c>
     </row>
     <row r="23">
@@ -1438,31 +1438,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>51.063827050713</v>
+        <v>51.0638270513064</v>
       </c>
       <c r="D23" t="n">
-        <v>50.1289727612483</v>
+        <v>50.1289727617871</v>
       </c>
       <c r="E23" t="n">
-        <v>49.2213787502687</v>
+        <v>49.2213787508255</v>
       </c>
       <c r="F23" t="n">
-        <v>50.6239213775734</v>
+        <v>50.6239213781332</v>
       </c>
       <c r="G23" t="n">
-        <v>49.6719272031406</v>
+        <v>49.6719272037004</v>
       </c>
       <c r="H23" t="n">
-        <v>48.1260541228116</v>
+        <v>48.1260541233702</v>
       </c>
       <c r="I23" t="n">
-        <v>47.8831848458085</v>
+        <v>47.8831848463659</v>
       </c>
       <c r="J23" t="n">
-        <v>47.8815884035496</v>
+        <v>47.8815884041071</v>
       </c>
       <c r="K23" t="n">
-        <v>-6.23188435132951</v>
+        <v>-6.23188435132752</v>
       </c>
     </row>
     <row r="24">
@@ -1473,31 +1473,31 @@
         <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>42.029432294281</v>
+        <v>42.0294322947889</v>
       </c>
       <c r="D24" t="n">
-        <v>41.9428041437815</v>
+        <v>41.942804144263</v>
       </c>
       <c r="E24" t="n">
-        <v>41.3992948712463</v>
+        <v>41.3992948717101</v>
       </c>
       <c r="F24" t="n">
-        <v>41.2287645292946</v>
+        <v>41.2287645297588</v>
       </c>
       <c r="G24" t="n">
-        <v>40.8900604145674</v>
+        <v>40.8900604150313</v>
       </c>
       <c r="H24" t="n">
-        <v>40.4473410322826</v>
+        <v>40.4473410327468</v>
       </c>
       <c r="I24" t="n">
-        <v>40.3963326270897</v>
+        <v>40.3963326275547</v>
       </c>
       <c r="J24" t="n">
-        <v>40.3948194922607</v>
+        <v>40.3948194927257</v>
       </c>
       <c r="K24" t="n">
-        <v>-3.88920980558347</v>
+        <v>-3.88920980563862</v>
       </c>
     </row>
     <row r="25">
@@ -1508,31 +1508,31 @@
         <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>38.3265768605882</v>
+        <v>38.3265768613709</v>
       </c>
       <c r="D25" t="n">
-        <v>37.3963857039454</v>
+        <v>37.3963857045506</v>
       </c>
       <c r="E25" t="n">
-        <v>36.1676276437891</v>
+        <v>36.167627644228</v>
       </c>
       <c r="F25" t="n">
-        <v>36.3010119774284</v>
+        <v>36.3010119778693</v>
       </c>
       <c r="G25" t="n">
-        <v>36.4132844279061</v>
+        <v>36.4132844283468</v>
       </c>
       <c r="H25" t="n">
-        <v>36.7070637290912</v>
+        <v>36.7070637295419</v>
       </c>
       <c r="I25" t="n">
-        <v>36.1934564364345</v>
+        <v>36.1934564368861</v>
       </c>
       <c r="J25" t="n">
-        <v>36.1936858907615</v>
+        <v>36.1936858912132</v>
       </c>
       <c r="K25" t="n">
-        <v>-5.56504427093785</v>
+        <v>-5.56504427168777</v>
       </c>
     </row>
     <row r="26">
@@ -1543,31 +1543,31 @@
         <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>35.7757818318192</v>
+        <v>35.7757818325155</v>
       </c>
       <c r="D26" t="n">
-        <v>35.4803270571817</v>
+        <v>35.4803270574643</v>
       </c>
       <c r="E26" t="n">
-        <v>34.2298648993539</v>
+        <v>34.2298648999131</v>
       </c>
       <c r="F26" t="n">
-        <v>34.2015109661318</v>
+        <v>34.2015109666921</v>
       </c>
       <c r="G26" t="n">
-        <v>33.9100187375155</v>
+        <v>33.9100187380761</v>
       </c>
       <c r="H26" t="n">
-        <v>33.2711974590719</v>
+        <v>33.271197459632</v>
       </c>
       <c r="I26" t="n">
-        <v>34.7565354672199</v>
+        <v>34.7565354677897</v>
       </c>
       <c r="J26" t="n">
-        <v>34.7537810675306</v>
+        <v>34.7537810681003</v>
       </c>
       <c r="K26" t="n">
-        <v>-2.8566832420129</v>
+        <v>-2.85668324231088</v>
       </c>
     </row>
     <row r="27">
@@ -1578,31 +1578,31 @@
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>55.7616894368977</v>
+        <v>55.7616894374693</v>
       </c>
       <c r="D27" t="n">
-        <v>55.1271214698237</v>
+        <v>55.1271214703864</v>
       </c>
       <c r="E27" t="n">
-        <v>54.9414342967706</v>
+        <v>54.9414342973311</v>
       </c>
       <c r="F27" t="n">
-        <v>54.7048501278761</v>
+        <v>54.7048501284358</v>
       </c>
       <c r="G27" t="n">
-        <v>55.8033069945511</v>
+        <v>55.8033069951115</v>
       </c>
       <c r="H27" t="n">
-        <v>54.875608175309</v>
+        <v>54.875608175867</v>
       </c>
       <c r="I27" t="n">
-        <v>55.3416399079757</v>
+        <v>55.3416399085402</v>
       </c>
       <c r="J27" t="n">
-        <v>55.3406635952076</v>
+        <v>55.3406635957721</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.755044988668485</v>
+        <v>-0.755044988673403</v>
       </c>
     </row>
     <row r="28">
@@ -1613,31 +1613,31 @@
         <v>38</v>
       </c>
       <c r="C28" t="n">
-        <v>13.9709954374083</v>
+        <v>13.970995438199</v>
       </c>
       <c r="D28" t="n">
-        <v>13.2570963251054</v>
+        <v>13.2570963255395</v>
       </c>
       <c r="E28" t="n">
-        <v>13.747041431432</v>
+        <v>13.7470414318449</v>
       </c>
       <c r="F28" t="n">
-        <v>14.534424896719</v>
+        <v>14.5344248971572</v>
       </c>
       <c r="G28" t="n">
-        <v>13.6794899902954</v>
+        <v>13.6794899907395</v>
       </c>
       <c r="H28" t="n">
-        <v>13.0693507082229</v>
+        <v>13.0693507086751</v>
       </c>
       <c r="I28" t="n">
-        <v>12.4876865227184</v>
+        <v>12.4876865231718</v>
       </c>
       <c r="J28" t="n">
-        <v>12.474053709789</v>
+        <v>12.4740537102423</v>
       </c>
       <c r="K28" t="n">
-        <v>-10.714639012845</v>
+        <v>-10.7146390146534</v>
       </c>
     </row>
     <row r="29">
@@ -1648,31 +1648,31 @@
         <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>35.6275169539833</v>
+        <v>35.627516954437</v>
       </c>
       <c r="D29" t="n">
-        <v>35.4707681172268</v>
+        <v>35.4707681177773</v>
       </c>
       <c r="E29" t="n">
-        <v>35.5941728999186</v>
+        <v>35.5941729003955</v>
       </c>
       <c r="F29" t="n">
-        <v>34.7007057561619</v>
+        <v>34.7007057566378</v>
       </c>
       <c r="G29" t="n">
-        <v>34.3088471496945</v>
+        <v>34.3088471501709</v>
       </c>
       <c r="H29" t="n">
-        <v>35.0156355330047</v>
+        <v>35.0156355334841</v>
       </c>
       <c r="I29" t="n">
-        <v>34.067953019965</v>
+        <v>34.0679530204426</v>
       </c>
       <c r="J29" t="n">
-        <v>34.0514979817064</v>
+        <v>34.0514979821839</v>
       </c>
       <c r="K29" t="n">
-        <v>-4.42360037134365</v>
+        <v>-4.42360037122062</v>
       </c>
     </row>
     <row r="30">
@@ -1683,31 +1683,31 @@
         <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>55.7894807930424</v>
+        <v>55.7894807935618</v>
       </c>
       <c r="D30" t="n">
-        <v>55.6142731557657</v>
+        <v>55.6142731563019</v>
       </c>
       <c r="E30" t="n">
-        <v>55.0024628155859</v>
+        <v>55.0024628161427</v>
       </c>
       <c r="F30" t="n">
-        <v>54.9730234129297</v>
+        <v>54.9730234134855</v>
       </c>
       <c r="G30" t="n">
-        <v>54.9915213006644</v>
+        <v>54.9915213012189</v>
       </c>
       <c r="H30" t="n">
-        <v>54.4673738407861</v>
+        <v>54.4673738413393</v>
       </c>
       <c r="I30" t="n">
-        <v>54.3632832420396</v>
+        <v>54.3632832425941</v>
       </c>
       <c r="J30" t="n">
-        <v>54.3571091272379</v>
+        <v>54.3571091277924</v>
       </c>
       <c r="K30" t="n">
-        <v>-2.56745831910149</v>
+        <v>-2.56745831901466</v>
       </c>
     </row>
     <row r="31">
@@ -1718,31 +1718,31 @@
         <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>39.0736399171206</v>
+        <v>39.0736399176519</v>
       </c>
       <c r="D31" t="n">
-        <v>38.5983019015801</v>
+        <v>38.5983019021751</v>
       </c>
       <c r="E31" t="n">
-        <v>38.0432187384108</v>
+        <v>38.0432187388897</v>
       </c>
       <c r="F31" t="n">
-        <v>38.0378123600068</v>
+        <v>38.0378123604839</v>
       </c>
       <c r="G31" t="n">
-        <v>37.5863404817509</v>
+        <v>37.5863404822276</v>
       </c>
       <c r="H31" t="n">
-        <v>36.849914815209</v>
+        <v>36.8499148156854</v>
       </c>
       <c r="I31" t="n">
-        <v>37.1766741597947</v>
+        <v>37.176674160272</v>
       </c>
       <c r="J31" t="n">
-        <v>37.1859817985575</v>
+        <v>37.1859817990348</v>
       </c>
       <c r="K31" t="n">
-        <v>-4.83102706214988</v>
+        <v>-4.83102706222239</v>
       </c>
     </row>
     <row r="32">
@@ -1753,31 +1753,31 @@
         <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>40.3460510450343</v>
+        <v>40.3460510455035</v>
       </c>
       <c r="D32" t="n">
-        <v>39.864475360155</v>
+        <v>39.8644753606231</v>
       </c>
       <c r="E32" t="n">
-        <v>37.6086798262781</v>
+        <v>37.6086798267419</v>
       </c>
       <c r="F32" t="n">
-        <v>37.1875271092438</v>
+        <v>37.1875271097036</v>
       </c>
       <c r="G32" t="n">
-        <v>35.9653410548197</v>
+        <v>35.9653410552771</v>
       </c>
       <c r="H32" t="n">
-        <v>36.4465118885251</v>
+        <v>36.4465118889773</v>
       </c>
       <c r="I32" t="n">
-        <v>36.3883443939512</v>
+        <v>36.3883443944057</v>
       </c>
       <c r="J32" t="n">
-        <v>36.3886150958447</v>
+        <v>36.3886150962992</v>
       </c>
       <c r="K32" t="n">
-        <v>-9.80873182550691</v>
+        <v>-9.80873182542941</v>
       </c>
     </row>
     <row r="33">
@@ -1788,31 +1788,31 @@
         <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>62.4878005869128</v>
+        <v>62.4878005872278</v>
       </c>
       <c r="D33" t="n">
-        <v>63.2146726107084</v>
+        <v>63.2146726110673</v>
       </c>
       <c r="E33" t="n">
-        <v>60.7450462198686</v>
+        <v>60.7450462202665</v>
       </c>
       <c r="F33" t="n">
-        <v>60.7001242143736</v>
+        <v>60.7001242147657</v>
       </c>
       <c r="G33" t="n">
-        <v>60.9465822724925</v>
+        <v>60.9465822728808</v>
       </c>
       <c r="H33" t="n">
-        <v>61.2431001398041</v>
+        <v>61.2431001401951</v>
       </c>
       <c r="I33" t="n">
-        <v>60.4687498860439</v>
+        <v>60.4687498864313</v>
       </c>
       <c r="J33" t="n">
-        <v>60.4676969204282</v>
+        <v>60.4676969208156</v>
       </c>
       <c r="K33" t="n">
-        <v>-3.23279687796797</v>
+        <v>-3.23279687783591</v>
       </c>
     </row>
     <row r="34">
@@ -1823,31 +1823,31 @@
         <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>55.3816005027727</v>
+        <v>55.3816005031788</v>
       </c>
       <c r="D34" t="n">
-        <v>56.6919411266306</v>
+        <v>56.6919411268371</v>
       </c>
       <c r="E34" t="n">
-        <v>58.4829379786973</v>
+        <v>58.482937978908</v>
       </c>
       <c r="F34" t="n">
-        <v>59.5733159009613</v>
+        <v>59.5733159011715</v>
       </c>
       <c r="G34" t="n">
-        <v>58.2023479180163</v>
+        <v>58.2023479182265</v>
       </c>
       <c r="H34" t="n">
-        <v>58.6749543107015</v>
+        <v>58.6749543109132</v>
       </c>
       <c r="I34" t="n">
-        <v>58.9129943496947</v>
+        <v>58.9129943499064</v>
       </c>
       <c r="J34" t="n">
-        <v>58.9221566919333</v>
+        <v>58.9221566921449</v>
       </c>
       <c r="K34" t="n">
-        <v>6.39301890342319</v>
+        <v>6.39301890302511</v>
       </c>
     </row>
     <row r="35">
@@ -1858,31 +1858,31 @@
         <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>28.9000546387871</v>
+        <v>28.9000546394548</v>
       </c>
       <c r="D35" t="n">
-        <v>35.9529601953409</v>
+        <v>35.9529601960091</v>
       </c>
       <c r="E35" t="n">
-        <v>36.1789867497648</v>
+        <v>36.1789867504325</v>
       </c>
       <c r="F35" t="n">
-        <v>34.8068625678002</v>
+        <v>34.8068625684692</v>
       </c>
       <c r="G35" t="n">
-        <v>34.0829557867892</v>
+        <v>34.0829557874562</v>
       </c>
       <c r="H35" t="n">
-        <v>32.906766692318</v>
+        <v>32.9067666929812</v>
       </c>
       <c r="I35" t="n">
-        <v>33.6927009948423</v>
+        <v>33.6927009955054</v>
       </c>
       <c r="J35" t="n">
-        <v>33.6924437282836</v>
+        <v>33.6924437289467</v>
       </c>
       <c r="K35" t="n">
-        <v>16.5826298579541</v>
+        <v>16.5826298575551</v>
       </c>
     </row>
     <row r="36">
@@ -1893,31 +1893,31 @@
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>58.5642601343786</v>
+        <v>58.5642601345491</v>
       </c>
       <c r="D36" t="n">
-        <v>60.4112770646088</v>
+        <v>60.4112770647961</v>
       </c>
       <c r="E36" t="n">
-        <v>60.5496895623625</v>
+        <v>60.5496895625447</v>
       </c>
       <c r="F36" t="n">
-        <v>60.3714565833745</v>
+        <v>60.3714565835548</v>
       </c>
       <c r="G36" t="n">
-        <v>60.2669335611924</v>
+        <v>60.2669335613733</v>
       </c>
       <c r="H36" t="n">
-        <v>58.8780365759483</v>
+        <v>58.8780365761226</v>
       </c>
       <c r="I36" t="n">
-        <v>59.1366235420253</v>
+        <v>59.1366235422027</v>
       </c>
       <c r="J36" t="n">
-        <v>59.1362410640108</v>
+        <v>59.1362410641882</v>
       </c>
       <c r="K36" t="n">
-        <v>0.976672339614271</v>
+        <v>0.976672339623086</v>
       </c>
     </row>
     <row r="37">
@@ -1928,31 +1928,31 @@
         <v>47</v>
       </c>
       <c r="C37" t="n">
-        <v>22.884829963274</v>
+        <v>22.8848299636897</v>
       </c>
       <c r="D37" t="n">
-        <v>22.3996237277927</v>
+        <v>22.3996237282071</v>
       </c>
       <c r="E37" t="n">
-        <v>18.6543164151873</v>
+        <v>18.6543164156059</v>
       </c>
       <c r="F37" t="n">
-        <v>17.8569640471218</v>
+        <v>17.8569640475401</v>
       </c>
       <c r="G37" t="n">
-        <v>14.9869440977547</v>
+        <v>14.986944098181</v>
       </c>
       <c r="H37" t="n">
-        <v>15.6343073152805</v>
+        <v>15.6343073157074</v>
       </c>
       <c r="I37" t="n">
-        <v>16.3537266826018</v>
+        <v>16.353726683029</v>
       </c>
       <c r="J37" t="n">
-        <v>16.3533531837685</v>
+        <v>16.3533531841957</v>
       </c>
       <c r="K37" t="n">
-        <v>-28.5406393230249</v>
+        <v>-28.5406393224559</v>
       </c>
     </row>
     <row r="38">
@@ -1963,31 +1963,31 @@
         <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>40.7244474161251</v>
+        <v>40.7244474166456</v>
       </c>
       <c r="D38" t="n">
-        <v>40.0163455492845</v>
+        <v>40.0163455498016</v>
       </c>
       <c r="E38" t="n">
-        <v>38.859219071909</v>
+        <v>38.8592190723134</v>
       </c>
       <c r="F38" t="n">
-        <v>38.4925750536311</v>
+        <v>38.4925750540338</v>
       </c>
       <c r="G38" t="n">
-        <v>37.9558905459605</v>
+        <v>37.9558905463619</v>
       </c>
       <c r="H38" t="n">
-        <v>36.8106443153425</v>
+        <v>36.810644315743</v>
       </c>
       <c r="I38" t="n">
-        <v>36.3645760302853</v>
+        <v>36.3645760306836</v>
       </c>
       <c r="J38" t="n">
-        <v>36.3803942825192</v>
+        <v>36.3803942829175</v>
       </c>
       <c r="K38" t="n">
-        <v>-10.6669418720852</v>
+        <v>-10.6669418722487</v>
       </c>
     </row>
     <row r="39">
@@ -1998,31 +1998,31 @@
         <v>49</v>
       </c>
       <c r="C39" t="n">
-        <v>32.1413857371011</v>
+        <v>32.1413857373177</v>
       </c>
       <c r="D39" t="n">
-        <v>31.6688483610365</v>
+        <v>31.668848361532</v>
       </c>
       <c r="E39" t="n">
-        <v>31.1511067488954</v>
+        <v>31.151106749209</v>
       </c>
       <c r="F39" t="n">
-        <v>30.4782146377807</v>
+        <v>30.478214638092</v>
       </c>
       <c r="G39" t="n">
-        <v>30.0852089136275</v>
+        <v>30.0852089139372</v>
       </c>
       <c r="H39" t="n">
-        <v>29.5357346728504</v>
+        <v>29.5357346731616</v>
       </c>
       <c r="I39" t="n">
-        <v>29.8594214443696</v>
+        <v>29.8594214446814</v>
       </c>
       <c r="J39" t="n">
-        <v>29.8545637681687</v>
+        <v>29.8545637684806</v>
       </c>
       <c r="K39" t="n">
-        <v>-7.11488293515827</v>
+        <v>-7.11488293481378</v>
       </c>
     </row>
     <row r="40">
@@ -2033,31 +2033,31 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>36.3347428098848</v>
+        <v>36.3347428106553</v>
       </c>
       <c r="D40" t="n">
-        <v>35.4351971317541</v>
+        <v>35.4351971325203</v>
       </c>
       <c r="E40" t="n">
-        <v>35.5014551497847</v>
+        <v>35.501455150549</v>
       </c>
       <c r="F40" t="n">
-        <v>35.7962211595319</v>
+        <v>35.7962211602971</v>
       </c>
       <c r="G40" t="n">
-        <v>35.5644142436495</v>
+        <v>35.5644142444109</v>
       </c>
       <c r="H40" t="n">
-        <v>36.2854007104134</v>
+        <v>36.2854007111757</v>
       </c>
       <c r="I40" t="n">
-        <v>35.741534293755</v>
+        <v>35.741534294514</v>
       </c>
       <c r="J40" t="n">
-        <v>35.7276660916524</v>
+        <v>35.7276660924112</v>
       </c>
       <c r="K40" t="n">
-        <v>-1.67078853814614</v>
+        <v>-1.67078853814305</v>
       </c>
     </row>
     <row r="41">
@@ -2068,31 +2068,31 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>28.8919347394951</v>
+        <v>28.8919347399879</v>
       </c>
       <c r="D41" t="n">
-        <v>29.122804735541</v>
+        <v>29.122804735886</v>
       </c>
       <c r="E41" t="n">
-        <v>28.6293720531249</v>
+        <v>28.62937205349</v>
       </c>
       <c r="F41" t="n">
-        <v>28.174367859867</v>
+        <v>28.1743678602363</v>
       </c>
       <c r="G41" t="n">
-        <v>27.5330840228567</v>
+        <v>27.5330840232264</v>
       </c>
       <c r="H41" t="n">
-        <v>27.4604273158663</v>
+        <v>27.4604273162391</v>
       </c>
       <c r="I41" t="n">
-        <v>27.1457380648376</v>
+        <v>27.1457380652103</v>
       </c>
       <c r="J41" t="n">
-        <v>27.1404053224616</v>
+        <v>27.1404053228344</v>
       </c>
       <c r="K41" t="n">
-        <v>-6.0623472703583</v>
+        <v>-6.06234727067014</v>
       </c>
     </row>
     <row r="42">
@@ -2103,31 +2103,31 @@
         <v>52</v>
       </c>
       <c r="C42" t="n">
-        <v>48.1435901877055</v>
+        <v>48.1435901880742</v>
       </c>
       <c r="D42" t="n">
-        <v>47.3560164788699</v>
+        <v>47.3560164792983</v>
       </c>
       <c r="E42" t="n">
-        <v>46.7458495881032</v>
+        <v>46.7458495885917</v>
       </c>
       <c r="F42" t="n">
-        <v>46.7016112558871</v>
+        <v>46.7016112563725</v>
       </c>
       <c r="G42" t="n">
-        <v>45.7724278056854</v>
+        <v>45.7724278061699</v>
       </c>
       <c r="H42" t="n">
-        <v>44.6441963776728</v>
+        <v>44.6441963781538</v>
       </c>
       <c r="I42" t="n">
-        <v>44.6820726103695</v>
+        <v>44.6820726108503</v>
       </c>
       <c r="J42" t="n">
-        <v>44.678850520811</v>
+        <v>44.6788505212918</v>
       </c>
       <c r="K42" t="n">
-        <v>-7.1966790457171</v>
+        <v>-7.19667904542929</v>
       </c>
     </row>
     <row r="43">
@@ -2138,31 +2138,31 @@
         <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>53.1208750570126</v>
+        <v>53.1208750575318</v>
       </c>
       <c r="D43" t="n">
-        <v>53.3363452278859</v>
+        <v>53.3363452283579</v>
       </c>
       <c r="E43" t="n">
-        <v>52.7736840306732</v>
+        <v>52.7736840311652</v>
       </c>
       <c r="F43" t="n">
-        <v>52.3837517540182</v>
+        <v>52.3837517545079</v>
       </c>
       <c r="G43" t="n">
-        <v>52.0984905310802</v>
+        <v>52.0984905315699</v>
       </c>
       <c r="H43" t="n">
-        <v>51.6512283994991</v>
+        <v>51.6512283999872</v>
       </c>
       <c r="I43" t="n">
-        <v>52.2319299334139</v>
+        <v>52.2319299339042</v>
       </c>
       <c r="J43" t="n">
-        <v>52.2296574714783</v>
+        <v>52.2296574719686</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.67771631129536</v>
+        <v>-1.6777163113334</v>
       </c>
     </row>
     <row r="44">
@@ -2173,31 +2173,31 @@
         <v>54</v>
       </c>
       <c r="C44" t="n">
-        <v>45.75200116162</v>
+        <v>45.752001161946</v>
       </c>
       <c r="D44" t="n">
-        <v>49.2499667116303</v>
+        <v>49.2499667120286</v>
       </c>
       <c r="E44" t="n">
-        <v>48.6697414019073</v>
+        <v>48.6697414023765</v>
       </c>
       <c r="F44" t="n">
-        <v>48.3088583737522</v>
+        <v>48.3088583742224</v>
       </c>
       <c r="G44" t="n">
-        <v>47.9951520838534</v>
+        <v>47.9951520843206</v>
       </c>
       <c r="H44" t="n">
-        <v>47.2550252935661</v>
+        <v>47.2550252940331</v>
       </c>
       <c r="I44" t="n">
-        <v>47.8649158656057</v>
+        <v>47.8649158660746</v>
       </c>
       <c r="J44" t="n">
-        <v>47.8646172761289</v>
+        <v>47.8646172765978</v>
       </c>
       <c r="K44" t="n">
-        <v>4.61753816416908</v>
+        <v>4.61753816444841</v>
       </c>
     </row>
     <row r="45">
@@ -2208,31 +2208,31 @@
         <v>55</v>
       </c>
       <c r="C45" t="n">
-        <v>58.174914123945</v>
+        <v>58.1749141240338</v>
       </c>
       <c r="D45" t="n">
-        <v>58.0608214719627</v>
+        <v>58.0608214722486</v>
       </c>
       <c r="E45" t="n">
-        <v>56.5653297409034</v>
+        <v>56.5653297413858</v>
       </c>
       <c r="F45" t="n">
-        <v>57.8983559306297</v>
+        <v>57.8983559311087</v>
       </c>
       <c r="G45" t="n">
-        <v>58.0913406054845</v>
+        <v>58.091340605963</v>
       </c>
       <c r="H45" t="n">
-        <v>58.2261158115353</v>
+        <v>58.2261158120183</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5771252896896</v>
+        <v>58.5771252901767</v>
       </c>
       <c r="J45" t="n">
-        <v>58.5768184275714</v>
+        <v>58.5768184280586</v>
       </c>
       <c r="K45" t="n">
-        <v>0.690855001126645</v>
+        <v>0.690855001810431</v>
       </c>
     </row>
     <row r="46">
@@ -2243,31 +2243,31 @@
         <v>56</v>
       </c>
       <c r="C46" t="n">
-        <v>37.8092245589255</v>
+        <v>37.809224559172</v>
       </c>
       <c r="D46" t="n">
-        <v>37.4904091170952</v>
+        <v>37.4904091176692</v>
       </c>
       <c r="E46" t="n">
-        <v>36.4111712609322</v>
+        <v>36.4111712611892</v>
       </c>
       <c r="F46" t="n">
-        <v>36.1018226049967</v>
+        <v>36.1018226052514</v>
       </c>
       <c r="G46" t="n">
-        <v>35.6464946103872</v>
+        <v>35.6464946106411</v>
       </c>
       <c r="H46" t="n">
-        <v>35.4682369314725</v>
+        <v>35.4682369317264</v>
       </c>
       <c r="I46" t="n">
-        <v>35.8339973899415</v>
+        <v>35.8339973901966</v>
       </c>
       <c r="J46" t="n">
-        <v>35.8322722124676</v>
+        <v>35.8322722127227</v>
       </c>
       <c r="K46" t="n">
-        <v>-5.2287566579866</v>
+        <v>-5.22875665792982</v>
       </c>
     </row>
     <row r="47">
@@ -2278,31 +2278,31 @@
         <v>57</v>
       </c>
       <c r="C47" t="n">
-        <v>50.2234792083104</v>
+        <v>50.2234792087949</v>
       </c>
       <c r="D47" t="n">
-        <v>52.9895850879652</v>
+        <v>52.9895850884049</v>
       </c>
       <c r="E47" t="n">
-        <v>53.8840764121233</v>
+        <v>53.8840764126274</v>
       </c>
       <c r="F47" t="n">
-        <v>53.7639628084878</v>
+        <v>53.763962808993</v>
       </c>
       <c r="G47" t="n">
-        <v>52.7937860043923</v>
+        <v>52.7937860048944</v>
       </c>
       <c r="H47" t="n">
-        <v>52.0017143398517</v>
+        <v>52.001714340354</v>
       </c>
       <c r="I47" t="n">
-        <v>52.6893168558556</v>
+        <v>52.6893168563614</v>
       </c>
       <c r="J47" t="n">
-        <v>52.692582526186</v>
+        <v>52.6925825266918</v>
       </c>
       <c r="K47" t="n">
-        <v>4.91623311804932</v>
+        <v>4.91623311804423</v>
       </c>
     </row>
     <row r="48">
@@ -2313,31 +2313,31 @@
         <v>58</v>
       </c>
       <c r="C48" t="n">
-        <v>27.2760833418333</v>
+        <v>27.2760833421669</v>
       </c>
       <c r="D48" t="n">
-        <v>26.3919492535263</v>
+        <v>26.3919492538574</v>
       </c>
       <c r="E48" t="n">
-        <v>25.5979865405962</v>
+        <v>25.5979865409266</v>
       </c>
       <c r="F48" t="n">
-        <v>24.395156060331</v>
+        <v>24.3951560606612</v>
       </c>
       <c r="G48" t="n">
-        <v>24.0769741231754</v>
+        <v>24.0769741235109</v>
       </c>
       <c r="H48" t="n">
-        <v>23.1838839221878</v>
+        <v>23.1838839225255</v>
       </c>
       <c r="I48" t="n">
-        <v>23.4950733742403</v>
+        <v>23.495073374583</v>
       </c>
       <c r="J48" t="n">
-        <v>23.4931765952317</v>
+        <v>23.4931765955745</v>
       </c>
       <c r="K48" t="n">
-        <v>-13.8689514150286</v>
+        <v>-13.8689514148254</v>
       </c>
     </row>
     <row r="49">
@@ -2348,31 +2348,31 @@
         <v>59</v>
       </c>
       <c r="C49" t="n">
-        <v>41.0286719884153</v>
+        <v>41.0286719889576</v>
       </c>
       <c r="D49" t="n">
-        <v>41.2099848995904</v>
+        <v>41.2099849000994</v>
       </c>
       <c r="E49" t="n">
-        <v>40.735584427731</v>
+        <v>40.7355844282102</v>
       </c>
       <c r="F49" t="n">
-        <v>40.8837526184318</v>
+        <v>40.8837526189119</v>
       </c>
       <c r="G49" t="n">
-        <v>40.5970153351577</v>
+        <v>40.5970153356375</v>
       </c>
       <c r="H49" t="n">
-        <v>40.2546918683163</v>
+        <v>40.2546918687957</v>
       </c>
       <c r="I49" t="n">
-        <v>40.3908743908432</v>
+        <v>40.3908743913237</v>
       </c>
       <c r="J49" t="n">
-        <v>40.3956802766484</v>
+        <v>40.3956802771288</v>
       </c>
       <c r="K49" t="n">
-        <v>-1.54280331555848</v>
+        <v>-1.54280331568895</v>
       </c>
     </row>
     <row r="50">
@@ -2383,31 +2383,31 @@
         <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>37.3194813932939</v>
+        <v>37.3194813937866</v>
       </c>
       <c r="D50" t="n">
-        <v>36.9723680544375</v>
+        <v>36.9723680549922</v>
       </c>
       <c r="E50" t="n">
-        <v>36.15150472496</v>
+        <v>36.1515047254658</v>
       </c>
       <c r="F50" t="n">
-        <v>35.2891001246076</v>
+        <v>35.2891001251121</v>
       </c>
       <c r="G50" t="n">
-        <v>34.274026859697</v>
+        <v>34.2740268602005</v>
       </c>
       <c r="H50" t="n">
-        <v>34.9683549717939</v>
+        <v>34.9683549722984</v>
       </c>
       <c r="I50" t="n">
-        <v>34.3012455567619</v>
+        <v>34.3012455572654</v>
       </c>
       <c r="J50" t="n">
-        <v>34.2906384715218</v>
+        <v>34.2906384720253</v>
       </c>
       <c r="K50" t="n">
-        <v>-8.11598341855951</v>
+        <v>-8.11598341842317</v>
       </c>
     </row>
     <row r="51">
@@ -2418,31 +2418,31 @@
         <v>61</v>
       </c>
       <c r="C51" t="n">
-        <v>37.3194813932939</v>
+        <v>37.3194813937866</v>
       </c>
       <c r="D51" t="n">
-        <v>36.9723680544375</v>
+        <v>36.9723680549922</v>
       </c>
       <c r="E51" t="n">
-        <v>36.15150472496</v>
+        <v>36.1515047254658</v>
       </c>
       <c r="F51" t="n">
-        <v>35.2891001246076</v>
+        <v>35.2891001251121</v>
       </c>
       <c r="G51" t="n">
-        <v>34.274026859697</v>
+        <v>34.2740268602005</v>
       </c>
       <c r="H51" t="n">
-        <v>34.9683549717939</v>
+        <v>34.9683549722984</v>
       </c>
       <c r="I51" t="n">
-        <v>34.3012455567619</v>
+        <v>34.3012455572654</v>
       </c>
       <c r="J51" t="n">
-        <v>34.2906384715218</v>
+        <v>34.2906384720253</v>
       </c>
       <c r="K51" t="n">
-        <v>-8.11598341855951</v>
+        <v>-8.11598341842317</v>
       </c>
     </row>
     <row r="52">
@@ -2453,31 +2453,31 @@
         <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>36.3831100886494</v>
+        <v>36.3831100891424</v>
       </c>
       <c r="D52" t="n">
-        <v>35.7836597380493</v>
+        <v>35.7836597386077</v>
       </c>
       <c r="E52" t="n">
-        <v>34.8660753747019</v>
+        <v>34.8660753752085</v>
       </c>
       <c r="F52" t="n">
-        <v>33.9009142743066</v>
+        <v>33.9009142748117</v>
       </c>
       <c r="G52" t="n">
-        <v>32.8628067731405</v>
+        <v>32.8628067736445</v>
       </c>
       <c r="H52" t="n">
-        <v>33.5407078199512</v>
+        <v>33.5407078204561</v>
       </c>
       <c r="I52" t="n">
-        <v>32.8735915489011</v>
+        <v>32.873591549405</v>
       </c>
       <c r="J52" t="n">
-        <v>32.8622579487373</v>
+        <v>32.8622579492412</v>
       </c>
       <c r="K52" t="n">
-        <v>-9.67716099952238</v>
+        <v>-9.67716099936156</v>
       </c>
     </row>
     <row r="53">
@@ -2488,31 +2488,31 @@
         <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>23.1444298419332</v>
+        <v>23.1444298425952</v>
       </c>
       <c r="D53" t="n">
-        <v>21.8814427407368</v>
+        <v>21.8814427412173</v>
       </c>
       <c r="E53" t="n">
-        <v>21.6810844019429</v>
+        <v>21.6810844022998</v>
       </c>
       <c r="F53" t="n">
-        <v>22.1287121233679</v>
+        <v>22.1287121237371</v>
       </c>
       <c r="G53" t="n">
-        <v>21.6655064044672</v>
+        <v>21.6655064048393</v>
       </c>
       <c r="H53" t="n">
-        <v>20.3628384683991</v>
+        <v>20.3628384687748</v>
       </c>
       <c r="I53" t="n">
-        <v>19.9492497698334</v>
+        <v>19.9492497702082</v>
       </c>
       <c r="J53" t="n">
-        <v>19.9648606425137</v>
+        <v>19.9648606428884</v>
       </c>
       <c r="K53" t="n">
-        <v>-13.7379456790885</v>
+        <v>-13.7379456799368</v>
       </c>
     </row>
     <row r="54">
@@ -2523,31 +2523,31 @@
         <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>23.1444298419332</v>
+        <v>23.1444298425952</v>
       </c>
       <c r="D54" t="n">
-        <v>21.8814427407368</v>
+        <v>21.8814427412173</v>
       </c>
       <c r="E54" t="n">
-        <v>21.6810844019429</v>
+        <v>21.6810844022998</v>
       </c>
       <c r="F54" t="n">
-        <v>22.1287121233679</v>
+        <v>22.1287121237371</v>
       </c>
       <c r="G54" t="n">
-        <v>21.6655064044672</v>
+        <v>21.6655064048393</v>
       </c>
       <c r="H54" t="n">
-        <v>20.3628384683991</v>
+        <v>20.3628384687748</v>
       </c>
       <c r="I54" t="n">
-        <v>19.9492497698334</v>
+        <v>19.9492497702082</v>
       </c>
       <c r="J54" t="n">
-        <v>19.9648606425137</v>
+        <v>19.9648606428884</v>
       </c>
       <c r="K54" t="n">
-        <v>-13.7379456790885</v>
+        <v>-13.7379456799368</v>
       </c>
     </row>
     <row r="55">
@@ -2558,31 +2558,31 @@
         <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>23.1444298419332</v>
+        <v>23.1444298425952</v>
       </c>
       <c r="D55" t="n">
-        <v>21.8814427407368</v>
+        <v>21.8814427412173</v>
       </c>
       <c r="E55" t="n">
-        <v>21.6810844019429</v>
+        <v>21.6810844022998</v>
       </c>
       <c r="F55" t="n">
-        <v>22.1287121233679</v>
+        <v>22.1287121237371</v>
       </c>
       <c r="G55" t="n">
-        <v>21.6655064044672</v>
+        <v>21.6655064048393</v>
       </c>
       <c r="H55" t="n">
-        <v>20.3628384683991</v>
+        <v>20.3628384687748</v>
       </c>
       <c r="I55" t="n">
-        <v>19.9492497698334</v>
+        <v>19.9492497702082</v>
       </c>
       <c r="J55" t="n">
-        <v>19.9648606425137</v>
+        <v>19.9648606428884</v>
       </c>
       <c r="K55" t="n">
-        <v>-13.7379456790885</v>
+        <v>-13.7379456799368</v>
       </c>
     </row>
     <row r="56">
@@ -2593,31 +2593,31 @@
         <v>66</v>
       </c>
       <c r="C56" t="n">
-        <v>62.0216719013431</v>
+        <v>62.0216719017975</v>
       </c>
       <c r="D56" t="n">
-        <v>63.5667485132003</v>
+        <v>63.5667485137067</v>
       </c>
       <c r="E56" t="n">
-        <v>63.8413745151105</v>
+        <v>63.8413745156283</v>
       </c>
       <c r="F56" t="n">
-        <v>63.8310461024578</v>
+        <v>63.8310461029752</v>
       </c>
       <c r="G56" t="n">
-        <v>64.1244576930001</v>
+        <v>64.1244576935148</v>
       </c>
       <c r="H56" t="n">
-        <v>63.4984583239408</v>
+        <v>63.4984583244552</v>
       </c>
       <c r="I56" t="n">
-        <v>63.7247473124175</v>
+        <v>63.7247473129342</v>
       </c>
       <c r="J56" t="n">
-        <v>63.7212547652264</v>
+        <v>63.7212547657431</v>
       </c>
       <c r="K56" t="n">
-        <v>2.74030481891367</v>
+        <v>2.74030481899399</v>
       </c>
     </row>
     <row r="57">
@@ -2628,31 +2628,31 @@
         <v>67</v>
       </c>
       <c r="C57" t="n">
-        <v>55.4364114195454</v>
+        <v>55.4364114200654</v>
       </c>
       <c r="D57" t="n">
-        <v>55.1364184055774</v>
+        <v>55.1364184061276</v>
       </c>
       <c r="E57" t="n">
-        <v>54.1035919046911</v>
+        <v>54.1035919052834</v>
       </c>
       <c r="F57" t="n">
-        <v>54.0189855130833</v>
+        <v>54.0189855136737</v>
       </c>
       <c r="G57" t="n">
-        <v>54.0351651635726</v>
+        <v>54.0351651641615</v>
       </c>
       <c r="H57" t="n">
-        <v>53.0934294455214</v>
+        <v>53.0934294461093</v>
       </c>
       <c r="I57" t="n">
-        <v>53.7102669641555</v>
+        <v>53.7102669647461</v>
       </c>
       <c r="J57" t="n">
-        <v>53.7089686017467</v>
+        <v>53.7089686023373</v>
       </c>
       <c r="K57" t="n">
-        <v>-3.11607979947576</v>
+        <v>-3.11607979931906</v>
       </c>
     </row>
     <row r="58">
@@ -2663,31 +2663,31 @@
         <v>68</v>
       </c>
       <c r="C58" t="n">
-        <v>12.6932378375387</v>
+        <v>12.6932378380274</v>
       </c>
       <c r="D58" t="n">
-        <v>13.5060705314414</v>
+        <v>13.5060705312176</v>
       </c>
       <c r="E58" t="n">
-        <v>11.1897771491645</v>
+        <v>11.1897771489542</v>
       </c>
       <c r="F58" t="n">
-        <v>10.6327750129689</v>
+        <v>10.632775012753</v>
       </c>
       <c r="G58" t="n">
-        <v>10.2169922829418</v>
+        <v>10.2169922827273</v>
       </c>
       <c r="H58" t="n">
-        <v>10.3406846002143</v>
+        <v>10.3406846</v>
       </c>
       <c r="I58" t="n">
-        <v>10.6927906480231</v>
+        <v>10.6927906478067</v>
       </c>
       <c r="J58" t="n">
-        <v>10.6900818592724</v>
+        <v>10.6900818590561</v>
       </c>
       <c r="K58" t="n">
-        <v>-15.7812845225529</v>
+        <v>-15.7812845274989</v>
       </c>
     </row>
     <row r="59">
@@ -2698,31 +2698,31 @@
         <v>69</v>
       </c>
       <c r="C59" t="n">
-        <v>30.1663514184432</v>
+        <v>30.1663514189686</v>
       </c>
       <c r="D59" t="n">
-        <v>30.3367593472027</v>
+        <v>30.3367593476757</v>
       </c>
       <c r="E59" t="n">
-        <v>29.8929213786576</v>
+        <v>29.8929213790637</v>
       </c>
       <c r="F59" t="n">
-        <v>29.4575608672244</v>
+        <v>29.457560867633</v>
       </c>
       <c r="G59" t="n">
-        <v>28.7092931582615</v>
+        <v>28.7092931586699</v>
       </c>
       <c r="H59" t="n">
-        <v>28.4315203257086</v>
+        <v>28.4315203261199</v>
       </c>
       <c r="I59" t="n">
-        <v>27.9941917933814</v>
+        <v>27.9941917937918</v>
       </c>
       <c r="J59" t="n">
-        <v>27.9865975040608</v>
+        <v>27.9865975044712</v>
       </c>
       <c r="K59" t="n">
-        <v>-7.22577909454992</v>
+        <v>-7.22577909480555</v>
       </c>
     </row>
     <row r="60">
@@ -2733,31 +2733,31 @@
         <v>70</v>
       </c>
       <c r="C60" t="n">
-        <v>42.0949242858315</v>
+        <v>42.0949242863403</v>
       </c>
       <c r="D60" t="n">
-        <v>41.9646900547016</v>
+        <v>41.9646900551832</v>
       </c>
       <c r="E60" t="n">
-        <v>41.3923190371315</v>
+        <v>41.3923190375948</v>
       </c>
       <c r="F60" t="n">
-        <v>41.2377179058016</v>
+        <v>41.2377179062655</v>
       </c>
       <c r="G60" t="n">
-        <v>40.893072502927</v>
+        <v>40.8930725033905</v>
       </c>
       <c r="H60" t="n">
-        <v>40.43602009643</v>
+        <v>40.4360200968939</v>
       </c>
       <c r="I60" t="n">
-        <v>40.3374292712365</v>
+        <v>40.337429271701</v>
       </c>
       <c r="J60" t="n">
-        <v>40.3358755931755</v>
+        <v>40.33587559364</v>
       </c>
       <c r="K60" t="n">
-        <v>-4.17876673375577</v>
+        <v>-4.17876673381063</v>
       </c>
     </row>
     <row r="61">
@@ -2768,31 +2768,31 @@
         <v>71</v>
       </c>
       <c r="C61" t="n">
-        <v>48.9230274956829</v>
+        <v>48.9230274961526</v>
       </c>
       <c r="D61" t="n">
-        <v>48.4989224202685</v>
+        <v>48.4989224207613</v>
       </c>
       <c r="E61" t="n">
-        <v>47.5337104864524</v>
+        <v>47.5337104869772</v>
       </c>
       <c r="F61" t="n">
-        <v>46.2068749471344</v>
+        <v>46.2068749476567</v>
       </c>
       <c r="G61" t="n">
-        <v>46.7454874072058</v>
+        <v>46.745487407727</v>
       </c>
       <c r="H61" t="n">
-        <v>46.2868106504633</v>
+        <v>46.2868106509787</v>
       </c>
       <c r="I61" t="n">
-        <v>45.9533837296344</v>
+        <v>45.9533837301513</v>
       </c>
       <c r="J61" t="n">
-        <v>45.9725088361023</v>
+        <v>45.9725088366193</v>
       </c>
       <c r="K61" t="n">
-        <v>-6.03094046017688</v>
+        <v>-6.03094046002244</v>
       </c>
     </row>
     <row r="62">
@@ -2803,31 +2803,31 @@
         <v>72</v>
       </c>
       <c r="C62" t="n">
-        <v>53.2815458946122</v>
+        <v>53.2815458951117</v>
       </c>
       <c r="D62" t="n">
-        <v>52.8946440848659</v>
+        <v>52.8946440853541</v>
       </c>
       <c r="E62" t="n">
-        <v>52.2679975830184</v>
+        <v>52.2679975835294</v>
       </c>
       <c r="F62" t="n">
-        <v>52.6533418059083</v>
+        <v>52.6533418064185</v>
       </c>
       <c r="G62" t="n">
-        <v>52.5518475850818</v>
+        <v>52.5518475855916</v>
       </c>
       <c r="H62" t="n">
-        <v>51.9057048335249</v>
+        <v>51.9057048340336</v>
       </c>
       <c r="I62" t="n">
-        <v>52.2137651149631</v>
+        <v>52.2137651154739</v>
       </c>
       <c r="J62" t="n">
-        <v>52.2143021463495</v>
+        <v>52.2143021468603</v>
       </c>
       <c r="K62" t="n">
-        <v>-2.00302699620173</v>
+        <v>-2.00302699616164</v>
       </c>
     </row>
     <row r="63">
@@ -2838,31 +2838,31 @@
         <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>52.5324255447962</v>
+        <v>52.5324255452906</v>
       </c>
       <c r="D63" t="n">
-        <v>52.1391294237633</v>
+        <v>52.1391294242522</v>
       </c>
       <c r="E63" t="n">
-        <v>51.4542919882961</v>
+        <v>51.4542919888095</v>
       </c>
       <c r="F63" t="n">
-        <v>51.5453553145565</v>
+        <v>51.5453553150688</v>
       </c>
       <c r="G63" t="n">
-        <v>51.5538794295094</v>
+        <v>51.5538794300211</v>
       </c>
       <c r="H63" t="n">
-        <v>50.9399573958112</v>
+        <v>50.9399573963211</v>
       </c>
       <c r="I63" t="n">
-        <v>51.1377620643597</v>
+        <v>51.1377620648716</v>
       </c>
       <c r="J63" t="n">
-        <v>51.1414939211508</v>
+        <v>51.1414939216626</v>
       </c>
       <c r="K63" t="n">
-        <v>-2.64775823545282</v>
+        <v>-2.64775823539455</v>
       </c>
     </row>
     <row r="64">
@@ -2873,31 +2873,31 @@
         <v>74</v>
       </c>
       <c r="C64" t="n">
-        <v>24.2389115718134</v>
+        <v>24.2389115722194</v>
       </c>
       <c r="D64" t="n">
-        <v>23.7221998650123</v>
+        <v>23.7221998653329</v>
       </c>
       <c r="E64" t="n">
-        <v>22.9529359298492</v>
+        <v>22.9529359300798</v>
       </c>
       <c r="F64" t="n">
-        <v>22.3258379918258</v>
+        <v>22.3258379920613</v>
       </c>
       <c r="G64" t="n">
-        <v>21.6284427377502</v>
+        <v>21.6284427379859</v>
       </c>
       <c r="H64" t="n">
-        <v>20.9928449006099</v>
+        <v>20.9928449008487</v>
       </c>
       <c r="I64" t="n">
-        <v>20.5151007923748</v>
+        <v>20.5151007926132</v>
       </c>
       <c r="J64" t="n">
-        <v>20.5102868894374</v>
+        <v>20.5102868896758</v>
       </c>
       <c r="K64" t="n">
-        <v>-15.3828057473994</v>
+        <v>-15.382805747833</v>
       </c>
     </row>
     <row r="65">
@@ -2908,31 +2908,31 @@
         <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>34.5309827445761</v>
+        <v>34.5309827450604</v>
       </c>
       <c r="D65" t="n">
-        <v>34.030300753639</v>
+        <v>34.0303007540844</v>
       </c>
       <c r="E65" t="n">
-        <v>33.1328872552185</v>
+        <v>33.1328872556378</v>
       </c>
       <c r="F65" t="n">
-        <v>32.8284176690687</v>
+        <v>32.8284176694877</v>
       </c>
       <c r="G65" t="n">
-        <v>32.5654932385956</v>
+        <v>32.5654932390139</v>
       </c>
       <c r="H65" t="n">
-        <v>32.1468563742082</v>
+        <v>32.1468563746289</v>
       </c>
       <c r="I65" t="n">
-        <v>32.6982756409511</v>
+        <v>32.6982756413755</v>
       </c>
       <c r="J65" t="n">
-        <v>32.6950880341642</v>
+        <v>32.6950880345886</v>
       </c>
       <c r="K65" t="n">
-        <v>-5.31665931430915</v>
+        <v>-5.31665931440782</v>
       </c>
     </row>
     <row r="66">
@@ -2943,31 +2943,31 @@
         <v>76</v>
       </c>
       <c r="C66" t="n">
-        <v>34.9882080980511</v>
+        <v>34.9882080985107</v>
       </c>
       <c r="D66" t="n">
-        <v>34.4705919505425</v>
+        <v>34.4705919510327</v>
       </c>
       <c r="E66" t="n">
-        <v>33.7251703448355</v>
+        <v>33.7251703452968</v>
       </c>
       <c r="F66" t="n">
-        <v>33.4879507772374</v>
+        <v>33.4879507776986</v>
       </c>
       <c r="G66" t="n">
-        <v>33.2513067885986</v>
+        <v>33.2513067890589</v>
       </c>
       <c r="H66" t="n">
-        <v>32.7889315932823</v>
+        <v>32.7889315937453</v>
       </c>
       <c r="I66" t="n">
-        <v>33.3689050892335</v>
+        <v>33.3689050897003</v>
       </c>
       <c r="J66" t="n">
-        <v>33.3656271925285</v>
+        <v>33.3656271929954</v>
       </c>
       <c r="K66" t="n">
-        <v>-4.63750787401142</v>
+        <v>-4.63750787392971</v>
       </c>
     </row>
     <row r="67">
@@ -2978,31 +2978,31 @@
         <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>35.233668288908</v>
+        <v>35.2336682893809</v>
       </c>
       <c r="D67" t="n">
-        <v>34.76588443161</v>
+        <v>34.765884432042</v>
       </c>
       <c r="E67" t="n">
-        <v>33.8737298402472</v>
+        <v>33.8737298406518</v>
       </c>
       <c r="F67" t="n">
-        <v>33.6032654694813</v>
+        <v>33.6032654698856</v>
       </c>
       <c r="G67" t="n">
-        <v>33.314503353701</v>
+        <v>33.3145033541046</v>
       </c>
       <c r="H67" t="n">
-        <v>32.7808406667296</v>
+        <v>32.7808406671358</v>
       </c>
       <c r="I67" t="n">
-        <v>33.3854270950415</v>
+        <v>33.3854270954512</v>
       </c>
       <c r="J67" t="n">
-        <v>33.3819697862232</v>
+        <v>33.3819697866331</v>
       </c>
       <c r="K67" t="n">
-        <v>-5.25548031928222</v>
+        <v>-5.25548031939076</v>
       </c>
     </row>
     <row r="68">
@@ -3013,31 +3013,31 @@
         <v>78</v>
       </c>
       <c r="C68" t="n">
-        <v>55.7894807930424</v>
+        <v>55.7894807935618</v>
       </c>
       <c r="D68" t="n">
-        <v>55.6142731557657</v>
+        <v>55.6142731563019</v>
       </c>
       <c r="E68" t="n">
-        <v>55.0024628155859</v>
+        <v>55.0024628161427</v>
       </c>
       <c r="F68" t="n">
-        <v>54.9730234129297</v>
+        <v>54.9730234134855</v>
       </c>
       <c r="G68" t="n">
-        <v>54.9915213006644</v>
+        <v>54.9915213012189</v>
       </c>
       <c r="H68" t="n">
-        <v>54.4673738407861</v>
+        <v>54.4673738413393</v>
       </c>
       <c r="I68" t="n">
-        <v>54.3632832420396</v>
+        <v>54.3632832425941</v>
       </c>
       <c r="J68" t="n">
-        <v>54.3571091272379</v>
+        <v>54.3571091277924</v>
       </c>
       <c r="K68" t="n">
-        <v>-2.56745831910149</v>
+        <v>-2.56745831901466</v>
       </c>
     </row>
     <row r="69">
@@ -3048,31 +3048,31 @@
         <v>79</v>
       </c>
       <c r="C69" t="n">
-        <v>42.5143280704255</v>
+        <v>42.5143280709337</v>
       </c>
       <c r="D69" t="n">
-        <v>42.4128327985309</v>
+        <v>42.412832799024</v>
       </c>
       <c r="E69" t="n">
-        <v>41.8986257426857</v>
+        <v>41.8986257431606</v>
       </c>
       <c r="F69" t="n">
-        <v>41.7344833642752</v>
+        <v>41.7344833647506</v>
       </c>
       <c r="G69" t="n">
-        <v>41.3970532762472</v>
+        <v>41.3970532767222</v>
       </c>
       <c r="H69" t="n">
-        <v>40.9449717171102</v>
+        <v>40.9449717175856</v>
       </c>
       <c r="I69" t="n">
-        <v>40.8873002631073</v>
+        <v>40.8873002635836</v>
       </c>
       <c r="J69" t="n">
-        <v>40.8858068911531</v>
+        <v>40.8858068916294</v>
       </c>
       <c r="K69" t="n">
-        <v>-3.83052315110027</v>
+        <v>-3.83052315112974</v>
       </c>
     </row>
     <row r="70">
@@ -3083,31 +3083,31 @@
         <v>80</v>
       </c>
       <c r="C70" t="n">
-        <v>62.4872804297145</v>
+        <v>62.4872804302749</v>
       </c>
       <c r="D70" t="n">
-        <v>62.9465847724016</v>
+        <v>62.9465847730185</v>
       </c>
       <c r="E70" t="n">
-        <v>62.5383416514897</v>
+        <v>62.5383416520961</v>
       </c>
       <c r="F70" t="n">
-        <v>63.3381331483298</v>
+        <v>63.3381331489361</v>
       </c>
       <c r="G70" t="n">
-        <v>64.0913121738071</v>
+        <v>64.0913121744124</v>
       </c>
       <c r="H70" t="n">
-        <v>63.354273885435</v>
+        <v>63.3542738860383</v>
       </c>
       <c r="I70" t="n">
-        <v>63.4278403770557</v>
+        <v>63.4278403776604</v>
       </c>
       <c r="J70" t="n">
-        <v>63.4299513854233</v>
+        <v>63.4299513860279</v>
       </c>
       <c r="K70" t="n">
-        <v>1.50858054507435</v>
+        <v>1.50858054513163</v>
       </c>
     </row>
     <row r="71">
@@ -3118,31 +3118,31 @@
         <v>81</v>
       </c>
       <c r="C71" t="n">
-        <v>42.1032363441627</v>
+        <v>42.1032363446598</v>
       </c>
       <c r="D71" t="n">
-        <v>41.4556615646051</v>
+        <v>41.455661565122</v>
       </c>
       <c r="E71" t="n">
-        <v>40.8722618069242</v>
+        <v>40.8722618074402</v>
       </c>
       <c r="F71" t="n">
-        <v>40.4383639668683</v>
+        <v>40.4383639673823</v>
       </c>
       <c r="G71" t="n">
-        <v>39.76607190578</v>
+        <v>39.7660719062932</v>
       </c>
       <c r="H71" t="n">
-        <v>39.3496301363912</v>
+        <v>39.3496301369034</v>
       </c>
       <c r="I71" t="n">
-        <v>39.4562418885346</v>
+        <v>39.4562418890482</v>
       </c>
       <c r="J71" t="n">
-        <v>39.4558374870393</v>
+        <v>39.4558374875528</v>
       </c>
       <c r="K71" t="n">
-        <v>-6.28787496401201</v>
+        <v>-6.28787496389877</v>
       </c>
     </row>
     <row r="72">
@@ -3153,31 +3153,31 @@
         <v>82</v>
       </c>
       <c r="C72" t="n">
-        <v>44.5703703690574</v>
+        <v>44.5703703695915</v>
       </c>
       <c r="D72" t="n">
-        <v>47.9816687433938</v>
+        <v>47.9816687438206</v>
       </c>
       <c r="E72" t="n">
-        <v>49.1554179317287</v>
+        <v>49.1554179321576</v>
       </c>
       <c r="F72" t="n">
-        <v>49.1761342806394</v>
+        <v>49.1761342810685</v>
       </c>
       <c r="G72" t="n">
-        <v>48.0941917323629</v>
+        <v>48.0941917327911</v>
       </c>
       <c r="H72" t="n">
-        <v>47.9229892006125</v>
+        <v>47.9229892010393</v>
       </c>
       <c r="I72" t="n">
-        <v>48.0789766107429</v>
+        <v>48.0789766111714</v>
       </c>
       <c r="J72" t="n">
-        <v>48.083666383197</v>
+        <v>48.0836663836255</v>
       </c>
       <c r="K72" t="n">
-        <v>7.88258204957299</v>
+        <v>7.88258204924182</v>
       </c>
     </row>
     <row r="73">
@@ -3188,31 +3188,31 @@
         <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>44.5703703690574</v>
+        <v>44.5703703695915</v>
       </c>
       <c r="D73" t="n">
-        <v>47.9816687433938</v>
+        <v>47.9816687438206</v>
       </c>
       <c r="E73" t="n">
-        <v>49.1554179317287</v>
+        <v>49.1554179321576</v>
       </c>
       <c r="F73" t="n">
-        <v>49.1761342806394</v>
+        <v>49.1761342810685</v>
       </c>
       <c r="G73" t="n">
-        <v>48.0941917323629</v>
+        <v>48.0941917327911</v>
       </c>
       <c r="H73" t="n">
-        <v>47.9229892006125</v>
+        <v>47.9229892010393</v>
       </c>
       <c r="I73" t="n">
-        <v>48.0789766107429</v>
+        <v>48.0789766111714</v>
       </c>
       <c r="J73" t="n">
-        <v>48.083666383197</v>
+        <v>48.0836663836255</v>
       </c>
       <c r="K73" t="n">
-        <v>7.88258204957299</v>
+        <v>7.88258204924182</v>
       </c>
     </row>
     <row r="74">
@@ -3223,31 +3223,31 @@
         <v>84</v>
       </c>
       <c r="C74" t="n">
-        <v>44.4970209188757</v>
+        <v>44.4970209194365</v>
       </c>
       <c r="D74" t="n">
-        <v>47.9891599045054</v>
+        <v>47.9891599049484</v>
       </c>
       <c r="E74" t="n">
-        <v>49.0849881907232</v>
+        <v>49.0849881911685</v>
       </c>
       <c r="F74" t="n">
-        <v>49.2924493859587</v>
+        <v>49.2924493864053</v>
       </c>
       <c r="G74" t="n">
-        <v>48.1128834217712</v>
+        <v>48.1128834222166</v>
       </c>
       <c r="H74" t="n">
-        <v>48.131350344488</v>
+        <v>48.1313503449319</v>
       </c>
       <c r="I74" t="n">
-        <v>47.7390209664737</v>
+        <v>47.7390209669182</v>
       </c>
       <c r="J74" t="n">
-        <v>47.7443430369668</v>
+        <v>47.7443430374112</v>
       </c>
       <c r="K74" t="n">
-        <v>7.29784163306437</v>
+        <v>7.29784163271108</v>
       </c>
     </row>
     <row r="75">
@@ -3258,31 +3258,31 @@
         <v>85</v>
       </c>
       <c r="C75" t="n">
-        <v>36.2185061310844</v>
+        <v>36.2185061315762</v>
       </c>
       <c r="D75" t="n">
-        <v>35.9402370676369</v>
+        <v>35.940237068091</v>
       </c>
       <c r="E75" t="n">
-        <v>35.3926283366497</v>
+        <v>35.3926283370831</v>
       </c>
       <c r="F75" t="n">
-        <v>34.9246372366928</v>
+        <v>34.9246372371269</v>
       </c>
       <c r="G75" t="n">
-        <v>34.2434281889729</v>
+        <v>34.2434281894069</v>
       </c>
       <c r="H75" t="n">
-        <v>33.88116994666</v>
+        <v>33.8811699470951</v>
       </c>
       <c r="I75" t="n">
-        <v>33.7821300097975</v>
+        <v>33.7821300102333</v>
       </c>
       <c r="J75" t="n">
-        <v>33.779500474481</v>
+        <v>33.7795004749168</v>
       </c>
       <c r="K75" t="n">
-        <v>-6.73414206476644</v>
+        <v>-6.73414206482971</v>
       </c>
     </row>
     <row r="76">
@@ -3293,31 +3293,31 @@
         <v>86</v>
       </c>
       <c r="C76" t="n">
-        <v>29.3045350076508</v>
+        <v>29.3045350081259</v>
       </c>
       <c r="D76" t="n">
-        <v>29.236372830277</v>
+        <v>29.2363728305951</v>
       </c>
       <c r="E76" t="n">
-        <v>28.1731028211</v>
+        <v>28.1731028218853</v>
       </c>
       <c r="F76" t="n">
-        <v>28.5159818768236</v>
+        <v>28.5159818776122</v>
       </c>
       <c r="G76" t="n">
-        <v>29.9994992312482</v>
+        <v>29.9994992320403</v>
       </c>
       <c r="H76" t="n">
-        <v>31.0653891142277</v>
+        <v>31.0653891150294</v>
       </c>
       <c r="I76" t="n">
-        <v>31.4824458942934</v>
+        <v>31.4824458951033</v>
       </c>
       <c r="J76" t="n">
-        <v>31.4808411149085</v>
+        <v>31.4808411157185</v>
       </c>
       <c r="K76" t="n">
-        <v>7.42651643061232</v>
+        <v>7.42651643163439</v>
       </c>
     </row>
     <row r="77">
@@ -3328,31 +3328,31 @@
         <v>87</v>
       </c>
       <c r="C77" t="n">
-        <v>37.8444719751913</v>
+        <v>37.8444719757435</v>
       </c>
       <c r="D77" t="n">
-        <v>37.1986423089767</v>
+        <v>37.1986423094648</v>
       </c>
       <c r="E77" t="n">
-        <v>36.8461941621808</v>
+        <v>36.8461941627295</v>
       </c>
       <c r="F77" t="n">
-        <v>35.8504886733549</v>
+        <v>35.850488673903</v>
       </c>
       <c r="G77" t="n">
-        <v>35.5541808768658</v>
+        <v>35.5541808774125</v>
       </c>
       <c r="H77" t="n">
-        <v>34.9081127594562</v>
+        <v>34.9081127600008</v>
       </c>
       <c r="I77" t="n">
-        <v>33.8776236599997</v>
+        <v>33.8776236605444</v>
       </c>
       <c r="J77" t="n">
-        <v>33.863717930607</v>
+        <v>33.8637179311517</v>
       </c>
       <c r="K77" t="n">
-        <v>-10.5187200053785</v>
+        <v>-10.5187200052448</v>
       </c>
     </row>
     <row r="78">
@@ -3363,31 +3363,31 @@
         <v>88</v>
       </c>
       <c r="C78" t="n">
-        <v>33.1403107246951</v>
+        <v>33.140310725007</v>
       </c>
       <c r="D78" t="n">
-        <v>32.5253698591301</v>
+        <v>32.5253698594413</v>
       </c>
       <c r="E78" t="n">
-        <v>30.1092151652649</v>
+        <v>30.1092151655728</v>
       </c>
       <c r="F78" t="n">
-        <v>29.139150787383</v>
+        <v>29.1391507876869</v>
       </c>
       <c r="G78" t="n">
-        <v>27.0178109537126</v>
+        <v>27.0178109540166</v>
       </c>
       <c r="H78" t="n">
-        <v>26.8102561269601</v>
+        <v>26.8102561272616</v>
       </c>
       <c r="I78" t="n">
-        <v>27.1924831454205</v>
+        <v>27.1924831457252</v>
       </c>
       <c r="J78" t="n">
-        <v>27.1915091705593</v>
+        <v>27.1915091708641</v>
       </c>
       <c r="K78" t="n">
-        <v>-17.9503493601914</v>
+        <v>-17.950349360044</v>
       </c>
     </row>
     <row r="79">
@@ -3398,31 +3398,31 @@
         <v>89</v>
       </c>
       <c r="C79" t="n">
-        <v>16.6958139842295</v>
+        <v>16.695813985061</v>
       </c>
       <c r="D79" t="n">
-        <v>16.0179031102011</v>
+        <v>16.0179031109007</v>
       </c>
       <c r="E79" t="n">
-        <v>17.4636991451953</v>
+        <v>17.4636991460278</v>
       </c>
       <c r="F79" t="n">
-        <v>18.2197623555198</v>
+        <v>18.2197623563509</v>
       </c>
       <c r="G79" t="n">
-        <v>15.7996705370635</v>
+        <v>15.7996705378949</v>
       </c>
       <c r="H79" t="n">
-        <v>15.7061529111107</v>
+        <v>15.7061529119457</v>
       </c>
       <c r="I79" t="n">
-        <v>15.3052982975413</v>
+        <v>15.3052982983811</v>
       </c>
       <c r="J79" t="n">
-        <v>15.2747108220229</v>
+        <v>15.2747108228627</v>
       </c>
       <c r="K79" t="n">
-        <v>-8.51173332159157</v>
+        <v>-8.5117333211175</v>
       </c>
     </row>
     <row r="80">
@@ -3433,31 +3433,31 @@
         <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>59.5613697686277</v>
+        <v>59.5613697691472</v>
       </c>
       <c r="D80" t="n">
-        <v>59.4853408743656</v>
+        <v>59.4853408749225</v>
       </c>
       <c r="E80" t="n">
-        <v>58.8397049688728</v>
+        <v>58.8397049694654</v>
       </c>
       <c r="F80" t="n">
-        <v>58.4463083518388</v>
+        <v>58.4463083524285</v>
       </c>
       <c r="G80" t="n">
-        <v>58.5757190388923</v>
+        <v>58.575719039481</v>
       </c>
       <c r="H80" t="n">
-        <v>58.1052831857329</v>
+        <v>58.1052831863207</v>
       </c>
       <c r="I80" t="n">
-        <v>58.1307657554415</v>
+        <v>58.1307657560301</v>
       </c>
       <c r="J80" t="n">
-        <v>58.1255496153451</v>
+        <v>58.1255496159337</v>
       </c>
       <c r="K80" t="n">
-        <v>-2.41065670393438</v>
+        <v>-2.4106567037974</v>
       </c>
     </row>
     <row r="81">
@@ -3468,31 +3468,31 @@
         <v>91</v>
       </c>
       <c r="C81" t="n">
-        <v>35.7393965209389</v>
+        <v>35.7393965214237</v>
       </c>
       <c r="D81" t="n">
-        <v>35.0689269354043</v>
+        <v>35.0689269358433</v>
       </c>
       <c r="E81" t="n">
-        <v>34.3173383766634</v>
+        <v>34.3173383771447</v>
       </c>
       <c r="F81" t="n">
-        <v>33.3000157823983</v>
+        <v>33.3000157828784</v>
       </c>
       <c r="G81" t="n">
-        <v>32.696801712129</v>
+        <v>32.6968017126088</v>
       </c>
       <c r="H81" t="n">
-        <v>32.0929413827149</v>
+        <v>32.0929413831932</v>
       </c>
       <c r="I81" t="n">
-        <v>31.4656147885166</v>
+        <v>31.465614788996</v>
       </c>
       <c r="J81" t="n">
-        <v>31.4553654703438</v>
+        <v>31.4553654708233</v>
       </c>
       <c r="K81" t="n">
-        <v>-11.9868589501368</v>
+        <v>-11.9868589499892</v>
       </c>
     </row>
     <row r="82">
@@ -3503,31 +3503,31 @@
         <v>92</v>
       </c>
       <c r="C82" t="n">
-        <v>45.792474331146</v>
+        <v>45.7924743315983</v>
       </c>
       <c r="D82" t="n">
-        <v>46.3891165254663</v>
+        <v>46.3891165258963</v>
       </c>
       <c r="E82" t="n">
-        <v>45.2251274459246</v>
+        <v>45.2251274463552</v>
       </c>
       <c r="F82" t="n">
-        <v>44.6744534460616</v>
+        <v>44.6744534464906</v>
       </c>
       <c r="G82" t="n">
-        <v>44.2048888333587</v>
+        <v>44.2048888337877</v>
       </c>
       <c r="H82" t="n">
-        <v>43.6708958729976</v>
+        <v>43.6708958734256</v>
       </c>
       <c r="I82" t="n">
-        <v>43.1228922681522</v>
+        <v>43.1228922685796</v>
       </c>
       <c r="J82" t="n">
-        <v>43.1079990772801</v>
+        <v>43.1079990777075</v>
       </c>
       <c r="K82" t="n">
-        <v>-5.86226294402267</v>
+        <v>-5.86226294401928</v>
       </c>
     </row>
     <row r="83">
@@ -3538,31 +3538,31 @@
         <v>93</v>
       </c>
       <c r="C83" t="n">
-        <v>45.792474331146</v>
+        <v>45.7924743315983</v>
       </c>
       <c r="D83" t="n">
-        <v>46.3891165254663</v>
+        <v>46.3891165258963</v>
       </c>
       <c r="E83" t="n">
-        <v>45.2251274459246</v>
+        <v>45.2251274463552</v>
       </c>
       <c r="F83" t="n">
-        <v>44.6744534460616</v>
+        <v>44.6744534464906</v>
       </c>
       <c r="G83" t="n">
-        <v>44.2048888333587</v>
+        <v>44.2048888337877</v>
       </c>
       <c r="H83" t="n">
-        <v>43.6708958729976</v>
+        <v>43.6708958734256</v>
       </c>
       <c r="I83" t="n">
-        <v>43.1228922681522</v>
+        <v>43.1228922685796</v>
       </c>
       <c r="J83" t="n">
-        <v>43.1079990772801</v>
+        <v>43.1079990777075</v>
       </c>
       <c r="K83" t="n">
-        <v>-5.86226294402267</v>
+        <v>-5.86226294401928</v>
       </c>
     </row>
     <row r="84">
@@ -3573,31 +3573,31 @@
         <v>94</v>
       </c>
       <c r="C84" t="n">
-        <v>52.5708177471209</v>
+        <v>52.5708177475915</v>
       </c>
       <c r="D84" t="n">
-        <v>52.1050890313381</v>
+        <v>52.1050890318334</v>
       </c>
       <c r="E84" t="n">
-        <v>51.3265355099254</v>
+        <v>51.3265355104477</v>
       </c>
       <c r="F84" t="n">
-        <v>51.2543209493703</v>
+        <v>51.2543209498902</v>
       </c>
       <c r="G84" t="n">
-        <v>51.3992851979342</v>
+        <v>51.399285198453</v>
       </c>
       <c r="H84" t="n">
-        <v>50.7860137880249</v>
+        <v>50.7860137885423</v>
       </c>
       <c r="I84" t="n">
-        <v>50.8471674475545</v>
+        <v>50.8471674480728</v>
       </c>
       <c r="J84" t="n">
-        <v>50.8440597508983</v>
+        <v>50.8440597514166</v>
       </c>
       <c r="K84" t="n">
-        <v>-3.28463217850029</v>
+        <v>-3.28463217838004</v>
       </c>
     </row>
     <row r="85">
@@ -3608,31 +3608,31 @@
         <v>95</v>
       </c>
       <c r="C85" t="n">
-        <v>53.7136616111888</v>
+        <v>53.7136616116696</v>
       </c>
       <c r="D85" t="n">
-        <v>53.1989460918603</v>
+        <v>53.1989460923664</v>
       </c>
       <c r="E85" t="n">
-        <v>52.4185834811097</v>
+        <v>52.4185834816432</v>
       </c>
       <c r="F85" t="n">
-        <v>52.3331584804383</v>
+        <v>52.3331584809696</v>
       </c>
       <c r="G85" t="n">
-        <v>52.4822096081644</v>
+        <v>52.4822096086946</v>
       </c>
       <c r="H85" t="n">
-        <v>51.8601441484666</v>
+        <v>51.8601441489955</v>
       </c>
       <c r="I85" t="n">
-        <v>51.9068907698765</v>
+        <v>51.9068907704063</v>
       </c>
       <c r="J85" t="n">
-        <v>51.9038032487076</v>
+        <v>51.9038032492374</v>
       </c>
       <c r="K85" t="n">
-        <v>-3.3694563137065</v>
+        <v>-3.36945631358516</v>
       </c>
     </row>
     <row r="86">
@@ -3643,31 +3643,31 @@
         <v>96</v>
       </c>
       <c r="C86" t="n">
-        <v>52.5708177471209</v>
+        <v>52.5708177475915</v>
       </c>
       <c r="D86" t="n">
-        <v>52.1050890313381</v>
+        <v>52.1050890318334</v>
       </c>
       <c r="E86" t="n">
-        <v>51.3265355099254</v>
+        <v>51.3265355104477</v>
       </c>
       <c r="F86" t="n">
-        <v>51.2543209493703</v>
+        <v>51.2543209498902</v>
       </c>
       <c r="G86" t="n">
-        <v>51.3992851979342</v>
+        <v>51.399285198453</v>
       </c>
       <c r="H86" t="n">
-        <v>50.7860137880249</v>
+        <v>50.7860137885423</v>
       </c>
       <c r="I86" t="n">
-        <v>50.8471674475545</v>
+        <v>50.8471674480728</v>
       </c>
       <c r="J86" t="n">
-        <v>50.8440597508983</v>
+        <v>50.8440597514166</v>
       </c>
       <c r="K86" t="n">
-        <v>-3.28463217850029</v>
+        <v>-3.28463217838004</v>
       </c>
     </row>
     <row r="87">
@@ -3678,31 +3678,31 @@
         <v>97</v>
       </c>
       <c r="C87" t="n">
-        <v>29.7988004440898</v>
+        <v>29.7988004445758</v>
       </c>
       <c r="D87" t="n">
-        <v>29.9234103436716</v>
+        <v>29.9234103440572</v>
       </c>
       <c r="E87" t="n">
-        <v>29.4148463690775</v>
+        <v>29.4148463694207</v>
       </c>
       <c r="F87" t="n">
-        <v>28.9096626219558</v>
+        <v>28.9096626223029</v>
       </c>
       <c r="G87" t="n">
-        <v>28.218725952456</v>
+        <v>28.2187259528035</v>
       </c>
       <c r="H87" t="n">
-        <v>27.9155770124078</v>
+        <v>27.9155770127587</v>
       </c>
       <c r="I87" t="n">
-        <v>27.5921897784479</v>
+        <v>27.5921897787988</v>
       </c>
       <c r="J87" t="n">
-        <v>27.5871328244174</v>
+        <v>27.5871328247683</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.42200218368542</v>
+        <v>-7.42200218401764</v>
       </c>
     </row>
     <row r="88">
@@ -3713,31 +3713,31 @@
         <v>98</v>
       </c>
       <c r="C88" t="n">
-        <v>42.029432294281</v>
+        <v>42.0294322947889</v>
       </c>
       <c r="D88" t="n">
-        <v>41.9428041437815</v>
+        <v>41.942804144263</v>
       </c>
       <c r="E88" t="n">
-        <v>41.3992948712463</v>
+        <v>41.3992948717101</v>
       </c>
       <c r="F88" t="n">
-        <v>41.2287645292946</v>
+        <v>41.2287645297588</v>
       </c>
       <c r="G88" t="n">
-        <v>40.8900604145674</v>
+        <v>40.8900604150313</v>
       </c>
       <c r="H88" t="n">
-        <v>40.4473410322826</v>
+        <v>40.4473410327468</v>
       </c>
       <c r="I88" t="n">
-        <v>40.3963326270897</v>
+        <v>40.3963326275547</v>
       </c>
       <c r="J88" t="n">
-        <v>40.3948194922607</v>
+        <v>40.3948194927257</v>
       </c>
       <c r="K88" t="n">
-        <v>-3.88920980558347</v>
+        <v>-3.88920980563862</v>
       </c>
     </row>
   </sheetData>
@@ -16173,31 +16173,31 @@
         <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>59.7883277520109</v>
+        <v>59.7883277530155</v>
       </c>
       <c r="D2" t="n">
-        <v>61.7459010205833</v>
+        <v>61.7459010214924</v>
       </c>
       <c r="E2" t="n">
-        <v>61.6197978570761</v>
+        <v>61.6197978579856</v>
       </c>
       <c r="F2" t="n">
-        <v>63.1735359814186</v>
+        <v>63.1735359823303</v>
       </c>
       <c r="G2" t="n">
-        <v>67.1369096951963</v>
+        <v>67.1369096961118</v>
       </c>
       <c r="H2" t="n">
-        <v>65.9390186404722</v>
+        <v>65.9390186413842</v>
       </c>
       <c r="I2" t="n">
-        <v>68.8644493175523</v>
+        <v>68.8644493184716</v>
       </c>
       <c r="J2" t="n">
-        <v>68.8644493175523</v>
+        <v>68.8644493184716</v>
       </c>
       <c r="K2" t="n">
-        <v>15.1804238499313</v>
+        <v>15.1804238495336</v>
       </c>
     </row>
     <row r="3">
@@ -16208,31 +16208,31 @@
         <v>13</v>
       </c>
       <c r="C3" t="n">
-        <v>60.7638661771485</v>
+        <v>60.763866178216</v>
       </c>
       <c r="D3" t="n">
-        <v>60.9094947160808</v>
+        <v>60.9094947170459</v>
       </c>
       <c r="E3" t="n">
-        <v>60.9477517918416</v>
+        <v>60.9477517928965</v>
       </c>
       <c r="F3" t="n">
-        <v>61.0702988295139</v>
+        <v>61.0702988305689</v>
       </c>
       <c r="G3" t="n">
-        <v>61.2753653513013</v>
+        <v>61.2753653523558</v>
       </c>
       <c r="H3" t="n">
-        <v>60.5900911304332</v>
+        <v>60.5900911314858</v>
       </c>
       <c r="I3" t="n">
-        <v>61.6501715692957</v>
+        <v>61.6501715703501</v>
       </c>
       <c r="J3" t="n">
-        <v>61.6501715692957</v>
+        <v>61.6501715703501</v>
       </c>
       <c r="K3" t="n">
-        <v>1.45860599054599</v>
+        <v>1.45860599049876</v>
       </c>
     </row>
     <row r="4">
@@ -16243,31 +16243,31 @@
         <v>14</v>
       </c>
       <c r="C4" t="n">
-        <v>47.8994057431309</v>
+        <v>47.8994057440583</v>
       </c>
       <c r="D4" t="n">
-        <v>49.038312124179</v>
+        <v>49.038312125139</v>
       </c>
       <c r="E4" t="n">
-        <v>47.4973193367958</v>
+        <v>47.4973193376882</v>
       </c>
       <c r="F4" t="n">
-        <v>47.1927681128923</v>
+        <v>47.1927681137852</v>
       </c>
       <c r="G4" t="n">
-        <v>46.5173459561145</v>
+        <v>46.5173459570063</v>
       </c>
       <c r="H4" t="n">
-        <v>45.0905344037378</v>
+        <v>45.0905344046277</v>
       </c>
       <c r="I4" t="n">
-        <v>45.8448248060071</v>
+        <v>45.8448248068987</v>
       </c>
       <c r="J4" t="n">
-        <v>45.8448248060071</v>
+        <v>45.8448248068987</v>
       </c>
       <c r="K4" t="n">
-        <v>-4.28936623586073</v>
+        <v>-4.2893662358524</v>
       </c>
     </row>
     <row r="5">
@@ -16278,31 +16278,31 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>59.8636609484587</v>
+        <v>59.8636609494018</v>
       </c>
       <c r="D5" t="n">
-        <v>59.508348326073</v>
+        <v>59.5083483269137</v>
       </c>
       <c r="E5" t="n">
-        <v>60.019665983211</v>
+        <v>60.0196659840695</v>
       </c>
       <c r="F5" t="n">
-        <v>60.2937475674992</v>
+        <v>60.2937475683578</v>
       </c>
       <c r="G5" t="n">
-        <v>59.5304171184687</v>
+        <v>59.5304171193252</v>
       </c>
       <c r="H5" t="n">
-        <v>59.4449620673668</v>
+        <v>59.444962068223</v>
       </c>
       <c r="I5" t="n">
-        <v>59.4219523872571</v>
+        <v>59.4219523881122</v>
       </c>
       <c r="J5" t="n">
-        <v>59.4219523872571</v>
+        <v>59.4219523881122</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.737857582051227</v>
+        <v>-0.737857582186585</v>
       </c>
     </row>
     <row r="6">
@@ -16313,31 +16313,31 @@
         <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>42.6876356460852</v>
+        <v>42.6876356469585</v>
       </c>
       <c r="D6" t="n">
-        <v>42.0785175867947</v>
+        <v>42.0785175878797</v>
       </c>
       <c r="E6" t="n">
-        <v>41.6917440051309</v>
+        <v>41.6917440062122</v>
       </c>
       <c r="F6" t="n">
-        <v>41.9246901102767</v>
+        <v>41.9246901113588</v>
       </c>
       <c r="G6" t="n">
-        <v>42.7177015035886</v>
+        <v>42.7177015046717</v>
       </c>
       <c r="H6" t="n">
-        <v>43.6785791761274</v>
+        <v>43.6785791772115</v>
       </c>
       <c r="I6" t="n">
-        <v>44.6777724049395</v>
+        <v>44.6777724060243</v>
       </c>
       <c r="J6" t="n">
-        <v>44.6777724049395</v>
+        <v>44.6777724060243</v>
       </c>
       <c r="K6" t="n">
-        <v>4.66209179480961</v>
+        <v>4.66209179520967</v>
       </c>
     </row>
     <row r="7">
@@ -16348,31 +16348,31 @@
         <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>48.9436641154799</v>
+        <v>48.9436641163918</v>
       </c>
       <c r="D7" t="n">
-        <v>49.0953942955731</v>
+        <v>49.0953942965488</v>
       </c>
       <c r="E7" t="n">
-        <v>48.465040903902</v>
+        <v>48.4650409048537</v>
       </c>
       <c r="F7" t="n">
-        <v>48.4929781223627</v>
+        <v>48.4929781233148</v>
       </c>
       <c r="G7" t="n">
-        <v>48.3206473624984</v>
+        <v>48.3206473634499</v>
       </c>
       <c r="H7" t="n">
-        <v>48.0723399693297</v>
+        <v>48.0723399702808</v>
       </c>
       <c r="I7" t="n">
-        <v>48.7253227896437</v>
+        <v>48.7253227905954</v>
       </c>
       <c r="J7" t="n">
-        <v>48.7253227896437</v>
+        <v>48.7253227905954</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.446107437565457</v>
+        <v>-0.44610743747574</v>
       </c>
     </row>
     <row r="8">
@@ -16383,31 +16383,31 @@
         <v>18</v>
       </c>
       <c r="C8" t="n">
-        <v>61.5358451185079</v>
+        <v>61.5358451191677</v>
       </c>
       <c r="D8" t="n">
-        <v>62.5011292466558</v>
+        <v>62.5011292475782</v>
       </c>
       <c r="E8" t="n">
-        <v>61.3160054136691</v>
+        <v>61.3160054145881</v>
       </c>
       <c r="F8" t="n">
-        <v>60.7270233135531</v>
+        <v>60.7270233144712</v>
       </c>
       <c r="G8" t="n">
-        <v>59.4935657619345</v>
+        <v>59.4935657628504</v>
       </c>
       <c r="H8" t="n">
-        <v>59.5726515434354</v>
+        <v>59.5726515443504</v>
       </c>
       <c r="I8" t="n">
-        <v>61.606241665664</v>
+        <v>61.6062416665818</v>
       </c>
       <c r="J8" t="n">
-        <v>61.606241665664</v>
+        <v>61.6062416665818</v>
       </c>
       <c r="K8" t="n">
-        <v>0.114399253021524</v>
+        <v>0.114399253439634</v>
       </c>
     </row>
     <row r="9">
@@ -16418,31 +16418,31 @@
         <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>74.560475870893</v>
+        <v>74.5604758720255</v>
       </c>
       <c r="D9" t="n">
-        <v>76.7570828293181</v>
+        <v>76.7570828304537</v>
       </c>
       <c r="E9" t="n">
-        <v>77.4291284321167</v>
+        <v>77.4291284332532</v>
       </c>
       <c r="F9" t="n">
-        <v>78.817495122664</v>
+        <v>78.8174951238042</v>
       </c>
       <c r="G9" t="n">
-        <v>78.2509813439395</v>
+        <v>78.2509813450779</v>
       </c>
       <c r="H9" t="n">
-        <v>78.3469450070703</v>
+        <v>78.3469450082081</v>
       </c>
       <c r="I9" t="n">
-        <v>79.1238907688083</v>
+        <v>79.1238907699481</v>
       </c>
       <c r="J9" t="n">
-        <v>79.1238907688083</v>
+        <v>79.1238907699481</v>
       </c>
       <c r="K9" t="n">
-        <v>6.12042083236863</v>
+        <v>6.12042083228539</v>
       </c>
     </row>
     <row r="10">
@@ -16453,31 +16453,31 @@
         <v>20</v>
       </c>
       <c r="C10" t="n">
-        <v>28.8471246163985</v>
+        <v>28.8471246172634</v>
       </c>
       <c r="D10" t="n">
-        <v>29.196404833381</v>
+        <v>29.1964048343193</v>
       </c>
       <c r="E10" t="n">
-        <v>29.3069918093049</v>
+        <v>29.3069918101221</v>
       </c>
       <c r="F10" t="n">
-        <v>29.2930097397478</v>
+        <v>29.2930097405794</v>
       </c>
       <c r="G10" t="n">
-        <v>28.9145576457767</v>
+        <v>28.9145576466078</v>
       </c>
       <c r="H10" t="n">
-        <v>30.5022846795207</v>
+        <v>30.5022846803546</v>
       </c>
       <c r="I10" t="n">
-        <v>29.5757904802283</v>
+        <v>29.5757904810601</v>
       </c>
       <c r="J10" t="n">
-        <v>29.5757904802283</v>
+        <v>29.5757904810601</v>
       </c>
       <c r="K10" t="n">
-        <v>2.52595665432653</v>
+        <v>2.52595665413615</v>
       </c>
     </row>
     <row r="11">
@@ -16488,31 +16488,31 @@
         <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>58.6261713815703</v>
+        <v>58.6261713825709</v>
       </c>
       <c r="D11" t="n">
-        <v>59.2501701286641</v>
+        <v>59.2501701295909</v>
       </c>
       <c r="E11" t="n">
-        <v>59.064983892051</v>
+        <v>59.0649838930104</v>
       </c>
       <c r="F11" t="n">
-        <v>59.0938623494</v>
+        <v>59.0938623503596</v>
       </c>
       <c r="G11" t="n">
-        <v>59.1816188281847</v>
+        <v>59.1816188291439</v>
       </c>
       <c r="H11" t="n">
-        <v>58.7788108586106</v>
+        <v>58.7788108595686</v>
       </c>
       <c r="I11" t="n">
-        <v>60.1063389652925</v>
+        <v>60.1063389662526</v>
       </c>
       <c r="J11" t="n">
-        <v>60.1063389652925</v>
+        <v>60.1063389662526</v>
       </c>
       <c r="K11" t="n">
-        <v>2.52475566601218</v>
+        <v>2.5247556659</v>
       </c>
     </row>
     <row r="12">
@@ -16523,31 +16523,31 @@
         <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>3.31942820753218</v>
+        <v>3.31942820871876</v>
       </c>
       <c r="D12" t="n">
-        <v>3.80184481449795</v>
+        <v>3.80184481488903</v>
       </c>
       <c r="E12" t="n">
-        <v>2.80643302813665</v>
+        <v>2.80643302919989</v>
       </c>
       <c r="F12" t="n">
-        <v>1.71486680142279</v>
+        <v>1.71486680248587</v>
       </c>
       <c r="G12" t="n">
-        <v>2.81469405515755</v>
+        <v>2.81469405622134</v>
       </c>
       <c r="H12" t="n">
-        <v>2.75093700983243</v>
+        <v>2.75093701089608</v>
       </c>
       <c r="I12" t="n">
-        <v>3.50891972813318</v>
+        <v>3.50891972919625</v>
       </c>
       <c r="J12" t="n">
-        <v>3.50891972813318</v>
+        <v>3.50891972919625</v>
       </c>
       <c r="K12" t="n">
-        <v>5.70855908770722</v>
+        <v>5.7085590819459</v>
       </c>
     </row>
     <row r="13">
@@ -16558,31 +16558,31 @@
         <v>23</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5863574826051</v>
+        <v>66.586357483655</v>
       </c>
       <c r="D13" t="n">
-        <v>66.9362363420953</v>
+        <v>66.936236343143</v>
       </c>
       <c r="E13" t="n">
-        <v>68.1114041971751</v>
+        <v>68.1114041982245</v>
       </c>
       <c r="F13" t="n">
-        <v>71.286150277797</v>
+        <v>71.2861502788549</v>
       </c>
       <c r="G13" t="n">
-        <v>68.6713252343756</v>
+        <v>68.6713252354298</v>
       </c>
       <c r="H13" t="n">
-        <v>69.1418337643027</v>
+        <v>69.1418337653578</v>
       </c>
       <c r="I13" t="n">
-        <v>71.3633384301478</v>
+        <v>71.363338431207</v>
       </c>
       <c r="J13" t="n">
-        <v>71.3633384301478</v>
+        <v>71.363338431207</v>
       </c>
       <c r="K13" t="n">
-        <v>7.17411362949345</v>
+        <v>7.17411362939415</v>
       </c>
     </row>
     <row r="14">
@@ -16593,31 +16593,31 @@
         <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>73.7500111914124</v>
+        <v>73.7500111928469</v>
       </c>
       <c r="D14" t="n">
-        <v>74.3872619102316</v>
+        <v>74.3872619116702</v>
       </c>
       <c r="E14" t="n">
-        <v>73.9298286852914</v>
+        <v>73.9298286867297</v>
       </c>
       <c r="F14" t="n">
-        <v>72.9381148595209</v>
+        <v>72.9381148609582</v>
       </c>
       <c r="G14" t="n">
-        <v>68.7722318765432</v>
+        <v>68.7722318779728</v>
       </c>
       <c r="H14" t="n">
-        <v>67.1780962013142</v>
+        <v>67.1780962027397</v>
       </c>
       <c r="I14" t="n">
-        <v>69.2325251338668</v>
+        <v>69.2325251352967</v>
       </c>
       <c r="J14" t="n">
-        <v>69.2325251338668</v>
+        <v>69.2325251352967</v>
       </c>
       <c r="K14" t="n">
-        <v>-6.12540389427301</v>
+        <v>-6.12540389416011</v>
       </c>
     </row>
     <row r="15">
@@ -16628,31 +16628,31 @@
         <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>38.130606326265</v>
+        <v>38.1306063272411</v>
       </c>
       <c r="D15" t="n">
-        <v>38.0753508745571</v>
+        <v>38.0753508754614</v>
       </c>
       <c r="E15" t="n">
-        <v>37.2970316579983</v>
+        <v>37.2970316587269</v>
       </c>
       <c r="F15" t="n">
-        <v>36.970541563646</v>
+        <v>36.9705415643739</v>
       </c>
       <c r="G15" t="n">
-        <v>36.8801631861429</v>
+        <v>36.8801631868703</v>
       </c>
       <c r="H15" t="n">
-        <v>36.1108848879954</v>
+        <v>36.1108848887214</v>
       </c>
       <c r="I15" t="n">
-        <v>36.3414678674171</v>
+        <v>36.3414678681432</v>
       </c>
       <c r="J15" t="n">
-        <v>36.3414678674171</v>
+        <v>36.3414678681432</v>
       </c>
       <c r="K15" t="n">
-        <v>-4.69213220356116</v>
+        <v>-4.69213220409693</v>
       </c>
     </row>
     <row r="16">
@@ -16663,31 +16663,31 @@
         <v>26</v>
       </c>
       <c r="C16" t="n">
-        <v>56.6277067655467</v>
+        <v>56.6277067665148</v>
       </c>
       <c r="D16" t="n">
-        <v>57.9322043850736</v>
+        <v>57.9322043860845</v>
       </c>
       <c r="E16" t="n">
-        <v>58.9197597309926</v>
+        <v>58.9197597319619</v>
       </c>
       <c r="F16" t="n">
-        <v>59.5450501398398</v>
+        <v>59.5450501408105</v>
       </c>
       <c r="G16" t="n">
-        <v>59.38831107078</v>
+        <v>59.3883110717499</v>
       </c>
       <c r="H16" t="n">
-        <v>60.3312036018797</v>
+        <v>60.3312036028502</v>
       </c>
       <c r="I16" t="n">
-        <v>61.2760159735532</v>
+        <v>61.2760159745248</v>
       </c>
       <c r="J16" t="n">
-        <v>61.2760159735532</v>
+        <v>61.2760159745248</v>
       </c>
       <c r="K16" t="n">
-        <v>8.20854220223282</v>
+        <v>8.20854220209857</v>
       </c>
     </row>
     <row r="17">
@@ -16698,31 +16698,31 @@
         <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>55.9173058322522</v>
+        <v>55.9173058322278</v>
       </c>
       <c r="D17" t="n">
-        <v>53.4595821515543</v>
+        <v>53.4595821524528</v>
       </c>
       <c r="E17" t="n">
-        <v>52.5016164249363</v>
+        <v>52.5016164258772</v>
       </c>
       <c r="F17" t="n">
-        <v>52.3395524327461</v>
+        <v>52.3395524336874</v>
       </c>
       <c r="G17" t="n">
-        <v>53.245460926119</v>
+        <v>53.2454609270608</v>
       </c>
       <c r="H17" t="n">
-        <v>54.0140962279633</v>
+        <v>54.0140962289053</v>
       </c>
       <c r="I17" t="n">
-        <v>55.0975154021401</v>
+        <v>55.0975154030826</v>
       </c>
       <c r="J17" t="n">
-        <v>55.0975154021401</v>
+        <v>55.0975154030826</v>
       </c>
       <c r="K17" t="n">
-        <v>-1.46607641035386</v>
+        <v>-1.46607640862532</v>
       </c>
     </row>
     <row r="18">
@@ -16733,31 +16733,31 @@
         <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>59.2867731661289</v>
+        <v>59.2867731668336</v>
       </c>
       <c r="D18" t="n">
-        <v>62.3690028237262</v>
+        <v>62.3690028244327</v>
       </c>
       <c r="E18" t="n">
-        <v>61.2564260839721</v>
+        <v>61.2564260846744</v>
       </c>
       <c r="F18" t="n">
-        <v>61.0001482854684</v>
+        <v>61.0001482861692</v>
       </c>
       <c r="G18" t="n">
-        <v>58.2938399221787</v>
+        <v>58.2938399228743</v>
       </c>
       <c r="H18" t="n">
-        <v>55.2225402946284</v>
+        <v>55.2225402953172</v>
       </c>
       <c r="I18" t="n">
-        <v>56.5600614989635</v>
+        <v>56.560061499656</v>
       </c>
       <c r="J18" t="n">
-        <v>56.5600614989635</v>
+        <v>56.560061499656</v>
       </c>
       <c r="K18" t="n">
-        <v>-4.59919054714751</v>
+        <v>-4.59919054711342</v>
       </c>
     </row>
     <row r="19">
@@ -16768,31 +16768,31 @@
         <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>54.0297978828358</v>
+        <v>54.0297978837826</v>
       </c>
       <c r="D19" t="n">
-        <v>55.5833264832419</v>
+        <v>55.5833264842432</v>
       </c>
       <c r="E19" t="n">
-        <v>56.5219394354667</v>
+        <v>56.5219394364151</v>
       </c>
       <c r="F19" t="n">
-        <v>56.482154451677</v>
+        <v>56.4821544526251</v>
       </c>
       <c r="G19" t="n">
-        <v>56.9666552020159</v>
+        <v>56.9666552029638</v>
       </c>
       <c r="H19" t="n">
-        <v>58.0327783421172</v>
+        <v>58.0327783430656</v>
       </c>
       <c r="I19" t="n">
-        <v>58.6445405500938</v>
+        <v>58.6445405510425</v>
       </c>
       <c r="J19" t="n">
-        <v>58.6445405500938</v>
+        <v>58.6445405510425</v>
       </c>
       <c r="K19" t="n">
-        <v>8.54110666352126</v>
+        <v>8.54110666337517</v>
       </c>
     </row>
     <row r="20">
@@ -16803,31 +16803,31 @@
         <v>30</v>
       </c>
       <c r="C20" t="n">
-        <v>39.1236049243714</v>
+        <v>39.1236049255859</v>
       </c>
       <c r="D20" t="n">
-        <v>40.0521512773367</v>
+        <v>40.0521512782517</v>
       </c>
       <c r="E20" t="n">
-        <v>41.3865101246308</v>
+        <v>41.3865101259538</v>
       </c>
       <c r="F20" t="n">
-        <v>41.6060782492344</v>
+        <v>41.6060782505579</v>
       </c>
       <c r="G20" t="n">
-        <v>40.437881223443</v>
+        <v>40.4378812247648</v>
       </c>
       <c r="H20" t="n">
-        <v>40.6859040961116</v>
+        <v>40.6859040974337</v>
       </c>
       <c r="I20" t="n">
-        <v>42.927023457821</v>
+        <v>42.9270234591449</v>
       </c>
       <c r="J20" t="n">
-        <v>42.927023457821</v>
+        <v>42.9270234591449</v>
       </c>
       <c r="K20" t="n">
-        <v>9.72154416956692</v>
+        <v>9.72154416954489</v>
       </c>
     </row>
     <row r="21">
@@ -16838,31 +16838,31 @@
         <v>31</v>
       </c>
       <c r="C21" t="n">
-        <v>50.9867025473022</v>
+        <v>50.9867025481936</v>
       </c>
       <c r="D21" t="n">
-        <v>52.1236028744993</v>
+        <v>52.1236028754891</v>
       </c>
       <c r="E21" t="n">
-        <v>51.445307214988</v>
+        <v>51.4453072159382</v>
       </c>
       <c r="F21" t="n">
-        <v>51.1407155767849</v>
+        <v>51.1407155777346</v>
       </c>
       <c r="G21" t="n">
-        <v>51.4060812941031</v>
+        <v>51.4060812950526</v>
       </c>
       <c r="H21" t="n">
-        <v>51.1002072415436</v>
+        <v>51.1002072424925</v>
       </c>
       <c r="I21" t="n">
-        <v>52.7023767312245</v>
+        <v>52.7023767321762</v>
       </c>
       <c r="J21" t="n">
-        <v>52.7023767312245</v>
+        <v>52.7023767321762</v>
       </c>
       <c r="K21" t="n">
-        <v>3.36494438394146</v>
+        <v>3.36494438400075</v>
       </c>
     </row>
     <row r="22">
@@ -16873,31 +16873,31 @@
         <v>32</v>
       </c>
       <c r="C22" t="n">
-        <v>31.718541702779</v>
+        <v>31.718541703734</v>
       </c>
       <c r="D22" t="n">
-        <v>31.785000359402</v>
+        <v>31.7850003603171</v>
       </c>
       <c r="E22" t="n">
-        <v>31.465173327982</v>
+        <v>31.4651733287998</v>
       </c>
       <c r="F22" t="n">
-        <v>31.2761855944933</v>
+        <v>31.2761855953171</v>
       </c>
       <c r="G22" t="n">
-        <v>30.8776158875966</v>
+        <v>30.8776158884194</v>
       </c>
       <c r="H22" t="n">
-        <v>31.093367380814</v>
+        <v>31.0933673816369</v>
       </c>
       <c r="I22" t="n">
-        <v>30.5841800618196</v>
+        <v>30.5841800626412</v>
       </c>
       <c r="J22" t="n">
-        <v>30.5841800618196</v>
+        <v>30.5841800626412</v>
       </c>
       <c r="K22" t="n">
-        <v>-3.57633604845075</v>
+        <v>-3.57633604876394</v>
       </c>
     </row>
     <row r="23">
@@ -16908,31 +16908,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="n">
-        <v>54.2026805712163</v>
+        <v>54.2026805724232</v>
       </c>
       <c r="D23" t="n">
-        <v>53.8009866533276</v>
+        <v>53.8009866544116</v>
       </c>
       <c r="E23" t="n">
-        <v>52.6290624128981</v>
+        <v>52.6290624140164</v>
       </c>
       <c r="F23" t="n">
-        <v>51.8284251161765</v>
+        <v>51.8284251172927</v>
       </c>
       <c r="G23" t="n">
-        <v>51.3448112845454</v>
+        <v>51.3448112856611</v>
       </c>
       <c r="H23" t="n">
-        <v>51.5130333698886</v>
+        <v>51.513033371004</v>
       </c>
       <c r="I23" t="n">
-        <v>51.2672352355965</v>
+        <v>51.2672352367127</v>
       </c>
       <c r="J23" t="n">
-        <v>51.2672352355965</v>
+        <v>51.2672352367127</v>
       </c>
       <c r="K23" t="n">
-        <v>-5.41568296011304</v>
+        <v>-5.41568296015978</v>
       </c>
     </row>
     <row r="24">
@@ -16943,31 +16943,31 @@
         <v>34</v>
       </c>
       <c r="C24" t="n">
-        <v>44.1879310661213</v>
+        <v>44.1879310670975</v>
       </c>
       <c r="D24" t="n">
-        <v>44.5127619597917</v>
+        <v>44.5127619607123</v>
       </c>
       <c r="E24" t="n">
-        <v>44.2553294430384</v>
+        <v>44.2553294439218</v>
       </c>
       <c r="F24" t="n">
-        <v>44.1673040906696</v>
+        <v>44.1673040915563</v>
       </c>
       <c r="G24" t="n">
-        <v>43.9941050551862</v>
+        <v>43.9941050560722</v>
       </c>
       <c r="H24" t="n">
-        <v>43.9232070412563</v>
+        <v>43.9232070421418</v>
       </c>
       <c r="I24" t="n">
-        <v>44.2651805292826</v>
+        <v>44.2651805301684</v>
       </c>
       <c r="J24" t="n">
-        <v>44.2651805292826</v>
+        <v>44.2651805301684</v>
       </c>
       <c r="K24" t="n">
-        <v>0.174820276255461</v>
+        <v>0.174820276047005</v>
       </c>
     </row>
     <row r="25">
@@ -16978,31 +16978,31 @@
         <v>35</v>
       </c>
       <c r="C25" t="n">
-        <v>43.1215981605447</v>
+        <v>43.1215981620942</v>
       </c>
       <c r="D25" t="n">
-        <v>42.7599643686931</v>
+        <v>42.7599643698764</v>
       </c>
       <c r="E25" t="n">
-        <v>42.2053215845466</v>
+        <v>42.2053215853871</v>
       </c>
       <c r="F25" t="n">
-        <v>42.6488092402824</v>
+        <v>42.6488092411239</v>
       </c>
       <c r="G25" t="n">
-        <v>43.1413754841095</v>
+        <v>43.1413754849513</v>
       </c>
       <c r="H25" t="n">
-        <v>43.27416380395</v>
+        <v>43.2741638047942</v>
       </c>
       <c r="I25" t="n">
-        <v>41.9412551734329</v>
+        <v>41.9412551742725</v>
       </c>
       <c r="J25" t="n">
-        <v>41.9412551734329</v>
+        <v>41.9412551742725</v>
       </c>
       <c r="K25" t="n">
-        <v>-2.7372431390816</v>
+        <v>-2.73724314062943</v>
       </c>
     </row>
     <row r="26">
@@ -17013,31 +17013,31 @@
         <v>36</v>
       </c>
       <c r="C26" t="n">
-        <v>40.6939820138538</v>
+        <v>40.6939820152721</v>
       </c>
       <c r="D26" t="n">
-        <v>40.8523203511769</v>
+        <v>40.8523203517418</v>
       </c>
       <c r="E26" t="n">
-        <v>39.7843247405048</v>
+        <v>39.784324741625</v>
       </c>
       <c r="F26" t="n">
-        <v>38.516791611087</v>
+        <v>38.5167916122053</v>
       </c>
       <c r="G26" t="n">
-        <v>39.0128005405139</v>
+        <v>39.0128005416323</v>
       </c>
       <c r="H26" t="n">
-        <v>39.0790232918294</v>
+        <v>39.0790232929476</v>
       </c>
       <c r="I26" t="n">
-        <v>41.6386022457594</v>
+        <v>41.6386022468826</v>
       </c>
       <c r="J26" t="n">
-        <v>41.6386022457594</v>
+        <v>41.6386022468826</v>
       </c>
       <c r="K26" t="n">
-        <v>2.32127745961066</v>
+        <v>2.32127745880457</v>
       </c>
     </row>
     <row r="27">
@@ -17048,31 +17048,31 @@
         <v>37</v>
       </c>
       <c r="C27" t="n">
-        <v>56.4139225984687</v>
+        <v>56.4139225995034</v>
       </c>
       <c r="D27" t="n">
-        <v>56.88287682911</v>
+        <v>56.8828768301242</v>
       </c>
       <c r="E27" t="n">
-        <v>56.978274768057</v>
+        <v>56.9782747690717</v>
       </c>
       <c r="F27" t="n">
-        <v>56.7206992815639</v>
+        <v>56.7206992825785</v>
       </c>
       <c r="G27" t="n">
-        <v>57.178313385755</v>
+        <v>57.1783133867689</v>
       </c>
       <c r="H27" t="n">
-        <v>56.0286454731103</v>
+        <v>56.0286454741214</v>
       </c>
       <c r="I27" t="n">
-        <v>58.736672199656</v>
+        <v>58.7366722006719</v>
       </c>
       <c r="J27" t="n">
-        <v>58.736672199656</v>
+        <v>58.7366722006719</v>
       </c>
       <c r="K27" t="n">
-        <v>4.11733397395477</v>
+        <v>4.11733397384599</v>
       </c>
     </row>
     <row r="28">
@@ -17083,31 +17083,31 @@
         <v>38</v>
       </c>
       <c r="C28" t="n">
-        <v>16.5916679874094</v>
+        <v>16.5916679890022</v>
       </c>
       <c r="D28" t="n">
-        <v>17.9552842109443</v>
+        <v>17.9552842118049</v>
       </c>
       <c r="E28" t="n">
-        <v>18.8402086605593</v>
+        <v>18.8402086613741</v>
       </c>
       <c r="F28" t="n">
-        <v>19.1341527582729</v>
+        <v>19.1341527591352</v>
       </c>
       <c r="G28" t="n">
-        <v>19.977097690545</v>
+        <v>19.9770976914079</v>
       </c>
       <c r="H28" t="n">
-        <v>20.6004846685088</v>
+        <v>20.6004846693737</v>
       </c>
       <c r="I28" t="n">
-        <v>20.9274234559455</v>
+        <v>20.9274234568112</v>
       </c>
       <c r="J28" t="n">
-        <v>20.9274234559455</v>
+        <v>20.9274234568112</v>
       </c>
       <c r="K28" t="n">
-        <v>26.1321253042567</v>
+        <v>26.1321252973662</v>
       </c>
     </row>
     <row r="29">
@@ -17118,31 +17118,31 @@
         <v>39</v>
       </c>
       <c r="C29" t="n">
-        <v>45.6098406606193</v>
+        <v>45.609840661431</v>
       </c>
       <c r="D29" t="n">
-        <v>45.0562621422679</v>
+        <v>45.0562621432733</v>
       </c>
       <c r="E29" t="n">
-        <v>46.6866665059133</v>
+        <v>46.6866665067616</v>
       </c>
       <c r="F29" t="n">
-        <v>46.7563589031253</v>
+        <v>46.7563589039734</v>
       </c>
       <c r="G29" t="n">
-        <v>47.0514089124694</v>
+        <v>47.0514089133178</v>
       </c>
       <c r="H29" t="n">
-        <v>48.6415750216908</v>
+        <v>48.6415750225415</v>
       </c>
       <c r="I29" t="n">
-        <v>47.1251269769364</v>
+        <v>47.1251269777838</v>
       </c>
       <c r="J29" t="n">
-        <v>47.1251269769364</v>
+        <v>47.1251269777838</v>
       </c>
       <c r="K29" t="n">
-        <v>3.32227934667053</v>
+        <v>3.32227934668961</v>
       </c>
     </row>
     <row r="30">
@@ -17153,31 +17153,31 @@
         <v>40</v>
       </c>
       <c r="C30" t="n">
-        <v>52.2995106628921</v>
+        <v>52.2995106638386</v>
       </c>
       <c r="D30" t="n">
-        <v>52.078888872447</v>
+        <v>52.0788888734298</v>
       </c>
       <c r="E30" t="n">
-        <v>51.7237715931845</v>
+        <v>51.7237715942119</v>
       </c>
       <c r="F30" t="n">
-        <v>51.6674857862055</v>
+        <v>51.667485787233</v>
       </c>
       <c r="G30" t="n">
-        <v>51.7121745064829</v>
+        <v>51.71217450751</v>
       </c>
       <c r="H30" t="n">
-        <v>51.4174160194426</v>
+        <v>51.4174160204684</v>
       </c>
       <c r="I30" t="n">
-        <v>52.2769655759922</v>
+        <v>52.2769655770191</v>
       </c>
       <c r="J30" t="n">
-        <v>52.2769655759922</v>
+        <v>52.2769655770191</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.0431076440566946</v>
+        <v>-0.0431076439020961</v>
       </c>
     </row>
     <row r="31">
@@ -17188,31 +17188,31 @@
         <v>41</v>
       </c>
       <c r="C31" t="n">
-        <v>41.5471931431898</v>
+        <v>41.5471931442447</v>
       </c>
       <c r="D31" t="n">
-        <v>42.3144799045372</v>
+        <v>42.3144799057193</v>
       </c>
       <c r="E31" t="n">
-        <v>42.0628288422799</v>
+        <v>42.0628288432228</v>
       </c>
       <c r="F31" t="n">
-        <v>42.1767898186339</v>
+        <v>42.1767898195773</v>
       </c>
       <c r="G31" t="n">
-        <v>41.6622518597943</v>
+        <v>41.6622518607366</v>
       </c>
       <c r="H31" t="n">
-        <v>41.3877456832435</v>
+        <v>41.387745684185</v>
       </c>
       <c r="I31" t="n">
-        <v>42.0537261261996</v>
+        <v>42.0537261271422</v>
       </c>
       <c r="J31" t="n">
-        <v>42.0537261261996</v>
+        <v>42.0537261271422</v>
       </c>
       <c r="K31" t="n">
-        <v>1.219174978353</v>
+        <v>1.21917497805197</v>
       </c>
     </row>
     <row r="32">
@@ -17223,31 +17223,31 @@
         <v>42</v>
       </c>
       <c r="C32" t="n">
-        <v>32.4731242108125</v>
+        <v>32.4731242117548</v>
       </c>
       <c r="D32" t="n">
-        <v>32.1151109728885</v>
+        <v>32.1151109738305</v>
       </c>
       <c r="E32" t="n">
-        <v>28.3094635147779</v>
+        <v>28.3094635157165</v>
       </c>
       <c r="F32" t="n">
-        <v>26.8423459706414</v>
+        <v>26.8423459715794</v>
       </c>
       <c r="G32" t="n">
-        <v>26.1099427235578</v>
+        <v>26.1099427244954</v>
       </c>
       <c r="H32" t="n">
-        <v>25.8154754600864</v>
+        <v>25.8154754610244</v>
       </c>
       <c r="I32" t="n">
-        <v>26.8581771180577</v>
+        <v>26.8581771189968</v>
       </c>
       <c r="J32" t="n">
-        <v>26.8581771180577</v>
+        <v>26.8581771189968</v>
       </c>
       <c r="K32" t="n">
-        <v>-17.2910590810514</v>
+        <v>-17.2910590805594</v>
       </c>
     </row>
     <row r="33">
@@ -17258,31 +17258,31 @@
         <v>43</v>
       </c>
       <c r="C33" t="n">
-        <v>64.4751113302488</v>
+        <v>64.4751113307581</v>
       </c>
       <c r="D33" t="n">
-        <v>65.1992317309365</v>
+        <v>65.1992317315309</v>
       </c>
       <c r="E33" t="n">
-        <v>64.4356706112544</v>
+        <v>64.4356706119327</v>
       </c>
       <c r="F33" t="n">
-        <v>63.9916841515322</v>
+        <v>63.99168415221</v>
       </c>
       <c r="G33" t="n">
-        <v>64.4503789972381</v>
+        <v>64.4503789979158</v>
       </c>
       <c r="H33" t="n">
-        <v>64.4081687167515</v>
+        <v>64.408168717429</v>
       </c>
       <c r="I33" t="n">
-        <v>62.8871116826408</v>
+        <v>62.8871116833148</v>
       </c>
       <c r="J33" t="n">
-        <v>62.8871116826408</v>
+        <v>62.8871116833148</v>
       </c>
       <c r="K33" t="n">
-        <v>-2.46296534405988</v>
+        <v>-2.46296534378483</v>
       </c>
     </row>
     <row r="34">
@@ -17293,31 +17293,31 @@
         <v>44</v>
       </c>
       <c r="C34" t="n">
-        <v>65.0353105356589</v>
+        <v>65.0353105365335</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5539791511319</v>
+        <v>66.5539791515941</v>
       </c>
       <c r="E34" t="n">
-        <v>67.1546193873215</v>
+        <v>67.154619387783</v>
       </c>
       <c r="F34" t="n">
-        <v>68.1344878050944</v>
+        <v>68.1344878055565</v>
       </c>
       <c r="G34" t="n">
-        <v>65.5346362949613</v>
+        <v>65.5346362954186</v>
       </c>
       <c r="H34" t="n">
-        <v>64.5743758672876</v>
+        <v>64.5743758677412</v>
       </c>
       <c r="I34" t="n">
-        <v>64.7576110299371</v>
+        <v>64.7576110303917</v>
       </c>
       <c r="J34" t="n">
-        <v>64.7576110299371</v>
+        <v>64.7576110303917</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.426998046806493</v>
+        <v>-0.426998047446514</v>
       </c>
     </row>
     <row r="35">
@@ -17328,31 +17328,31 @@
         <v>45</v>
       </c>
       <c r="C35" t="n">
-        <v>40.8847295125265</v>
+        <v>40.8847295138973</v>
       </c>
       <c r="D35" t="n">
-        <v>43.7130812739966</v>
+        <v>43.7130812753712</v>
       </c>
       <c r="E35" t="n">
-        <v>44.0418425270981</v>
+        <v>44.0418425284727</v>
       </c>
       <c r="F35" t="n">
-        <v>44.8143849955676</v>
+        <v>44.8143849969424</v>
       </c>
       <c r="G35" t="n">
-        <v>43.5132713665352</v>
+        <v>43.5132713679079</v>
       </c>
       <c r="H35" t="n">
-        <v>43.0774308930724</v>
+        <v>43.0774308944435</v>
       </c>
       <c r="I35" t="n">
-        <v>43.3650069286569</v>
+        <v>43.3650069300267</v>
       </c>
       <c r="J35" t="n">
-        <v>43.3650069286569</v>
+        <v>43.3650069300267</v>
       </c>
       <c r="K35" t="n">
-        <v>6.06651296389409</v>
+        <v>6.06651296368805</v>
       </c>
     </row>
     <row r="36">
@@ -17363,31 +17363,31 @@
         <v>46</v>
       </c>
       <c r="C36" t="n">
-        <v>75.1220242160197</v>
+        <v>75.1220242161847</v>
       </c>
       <c r="D36" t="n">
-        <v>76.9614525251663</v>
+        <v>76.9614525253295</v>
       </c>
       <c r="E36" t="n">
-        <v>75.8862302350678</v>
+        <v>75.8862302352306</v>
       </c>
       <c r="F36" t="n">
-        <v>75.7928858736696</v>
+        <v>75.7928858738326</v>
       </c>
       <c r="G36" t="n">
-        <v>76.2346248721925</v>
+        <v>76.2346248723562</v>
       </c>
       <c r="H36" t="n">
-        <v>72.7045556537565</v>
+        <v>72.7045556539168</v>
       </c>
       <c r="I36" t="n">
-        <v>74.338841647537</v>
+        <v>74.3388416477002</v>
       </c>
       <c r="J36" t="n">
-        <v>74.338841647537</v>
+        <v>74.3388416477002</v>
       </c>
       <c r="K36" t="n">
-        <v>-1.04254721122869</v>
+        <v>-1.04254721122896</v>
       </c>
     </row>
     <row r="37">
@@ -17398,31 +17398,31 @@
         <v>47</v>
       </c>
       <c r="C37" t="n">
-        <v>13.9612693902101</v>
+        <v>13.9612693910819</v>
       </c>
       <c r="D37" t="n">
-        <v>13.2756026943925</v>
+        <v>13.2756026952634</v>
       </c>
       <c r="E37" t="n">
-        <v>10.3041140066594</v>
+        <v>10.3041140075273</v>
       </c>
       <c r="F37" t="n">
-        <v>9.33197684504269</v>
+        <v>9.3319768459088</v>
       </c>
       <c r="G37" t="n">
-        <v>7.61119455144963</v>
+        <v>7.61119455231233</v>
       </c>
       <c r="H37" t="n">
-        <v>7.16136356175898</v>
+        <v>7.16136356262037</v>
       </c>
       <c r="I37" t="n">
-        <v>7.31167963559153</v>
+        <v>7.31167963645346</v>
       </c>
       <c r="J37" t="n">
-        <v>7.31167963559153</v>
+        <v>7.31167963645346</v>
       </c>
       <c r="K37" t="n">
-        <v>-47.6288335162515</v>
+        <v>-47.6288335133483</v>
       </c>
     </row>
     <row r="38">
@@ -17433,31 +17433,31 @@
         <v>48</v>
       </c>
       <c r="C38" t="n">
-        <v>45.9578985878238</v>
+        <v>45.9578985888093</v>
       </c>
       <c r="D38" t="n">
-        <v>46.233417896172</v>
+        <v>46.2334178971532</v>
       </c>
       <c r="E38" t="n">
-        <v>45.920660499377</v>
+        <v>45.9206605001291</v>
       </c>
       <c r="F38" t="n">
-        <v>45.5774201495356</v>
+        <v>45.577420150287</v>
       </c>
       <c r="G38" t="n">
-        <v>45.1898244820052</v>
+        <v>45.1898244827555</v>
       </c>
       <c r="H38" t="n">
-        <v>44.636411700151</v>
+        <v>44.6364117008995</v>
       </c>
       <c r="I38" t="n">
-        <v>44.0589869785957</v>
+        <v>44.058986979344</v>
       </c>
       <c r="J38" t="n">
-        <v>44.0589869785957</v>
+        <v>44.058986979344</v>
       </c>
       <c r="K38" t="n">
-        <v>-4.13185038388851</v>
+        <v>-4.1318503843161</v>
       </c>
     </row>
     <row r="39">
@@ -17468,31 +17468,31 @@
         <v>49</v>
       </c>
       <c r="C39" t="n">
-        <v>33.0995435247553</v>
+        <v>33.0995435251885</v>
       </c>
       <c r="D39" t="n">
-        <v>33.990806349516</v>
+        <v>33.990806350512</v>
       </c>
       <c r="E39" t="n">
-        <v>33.2915529992225</v>
+        <v>33.291552999839</v>
       </c>
       <c r="F39" t="n">
-        <v>33.0353945501434</v>
+        <v>33.0353945507592</v>
       </c>
       <c r="G39" t="n">
-        <v>33.0340610113391</v>
+        <v>33.0340610119543</v>
       </c>
       <c r="H39" t="n">
-        <v>33.8476976767862</v>
+        <v>33.8476976774029</v>
       </c>
       <c r="I39" t="n">
-        <v>33.835851977073</v>
+        <v>33.8358519776895</v>
       </c>
       <c r="J39" t="n">
-        <v>33.835851977073</v>
+        <v>33.8358519776895</v>
       </c>
       <c r="K39" t="n">
-        <v>2.22452751279496</v>
+        <v>2.22452751331941</v>
       </c>
     </row>
     <row r="40">
@@ -17503,31 +17503,31 @@
         <v>50</v>
       </c>
       <c r="C40" t="n">
-        <v>35.0060426061911</v>
+        <v>35.0060426077365</v>
       </c>
       <c r="D40" t="n">
-        <v>34.3675831361404</v>
+        <v>34.3675831376867</v>
       </c>
       <c r="E40" t="n">
-        <v>34.1918064330365</v>
+        <v>34.1918064345827</v>
       </c>
       <c r="F40" t="n">
-        <v>34.5712002221835</v>
+        <v>34.5712002237308</v>
       </c>
       <c r="G40" t="n">
-        <v>34.8267361585534</v>
+        <v>34.8267361601011</v>
       </c>
       <c r="H40" t="n">
-        <v>36.9348711515524</v>
+        <v>36.934871153103</v>
       </c>
       <c r="I40" t="n">
-        <v>36.4865777906171</v>
+        <v>36.4865777921655</v>
       </c>
       <c r="J40" t="n">
-        <v>36.4865777906171</v>
+        <v>36.4865777921655</v>
       </c>
       <c r="K40" t="n">
-        <v>4.22937034351933</v>
+        <v>4.22937034334134</v>
       </c>
     </row>
     <row r="41">
@@ -17538,31 +17538,31 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>36.1616410952923</v>
+        <v>36.1616410962753</v>
       </c>
       <c r="D41" t="n">
-        <v>36.6405833330873</v>
+        <v>36.6405833337656</v>
       </c>
       <c r="E41" t="n">
-        <v>36.5220752069706</v>
+        <v>36.5220752076858</v>
       </c>
       <c r="F41" t="n">
-        <v>36.2367837426719</v>
+        <v>36.2367837433965</v>
       </c>
       <c r="G41" t="n">
-        <v>36.0771727623519</v>
+        <v>36.0771727630755</v>
       </c>
       <c r="H41" t="n">
-        <v>36.5756733490908</v>
+        <v>36.5756733498152</v>
       </c>
       <c r="I41" t="n">
-        <v>36.0392710141966</v>
+        <v>36.0392710149196</v>
       </c>
       <c r="J41" t="n">
-        <v>36.0392710141966</v>
+        <v>36.0392710149196</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.338397476965357</v>
+        <v>-0.338397477675223</v>
       </c>
     </row>
     <row r="42">
@@ -17573,31 +17573,31 @@
         <v>52</v>
       </c>
       <c r="C42" t="n">
-        <v>40.0110546673981</v>
+        <v>40.0110546680885</v>
       </c>
       <c r="D42" t="n">
-        <v>39.1418075456797</v>
+        <v>39.1418075464932</v>
       </c>
       <c r="E42" t="n">
-        <v>38.0680915047674</v>
+        <v>38.0680915057055</v>
       </c>
       <c r="F42" t="n">
-        <v>38.3249855142052</v>
+        <v>38.3249855151444</v>
       </c>
       <c r="G42" t="n">
-        <v>37.3710189658583</v>
+        <v>37.3710189667965</v>
       </c>
       <c r="H42" t="n">
-        <v>36.7157775767075</v>
+        <v>36.7157775776442</v>
       </c>
       <c r="I42" t="n">
-        <v>37.5467355487326</v>
+        <v>37.5467355496695</v>
       </c>
       <c r="J42" t="n">
-        <v>37.5467355487326</v>
+        <v>37.5467355496695</v>
       </c>
       <c r="K42" t="n">
-        <v>-6.15909562782265</v>
+        <v>-6.15909562710039</v>
       </c>
     </row>
     <row r="43">
@@ -17608,31 +17608,31 @@
         <v>53</v>
       </c>
       <c r="C43" t="n">
-        <v>53.9183086915431</v>
+        <v>53.9183086925048</v>
       </c>
       <c r="D43" t="n">
-        <v>54.0776731943799</v>
+        <v>54.0776731952451</v>
       </c>
       <c r="E43" t="n">
-        <v>53.6392139143043</v>
+        <v>53.6392139152114</v>
       </c>
       <c r="F43" t="n">
-        <v>53.2664253936629</v>
+        <v>53.2664253945691</v>
       </c>
       <c r="G43" t="n">
-        <v>53.5474889939844</v>
+        <v>53.5474889948907</v>
       </c>
       <c r="H43" t="n">
-        <v>52.9973166783838</v>
+        <v>52.9973166792888</v>
       </c>
       <c r="I43" t="n">
-        <v>54.4875168415264</v>
+        <v>54.4875168424335</v>
       </c>
       <c r="J43" t="n">
-        <v>54.4875168415264</v>
+        <v>54.4875168424335</v>
       </c>
       <c r="K43" t="n">
-        <v>1.05568621085588</v>
+        <v>1.05568621073575</v>
       </c>
     </row>
     <row r="44">
@@ -17643,31 +17643,31 @@
         <v>54</v>
       </c>
       <c r="C44" t="n">
-        <v>50.466661444511</v>
+        <v>50.4666614451492</v>
       </c>
       <c r="D44" t="n">
-        <v>51.2698028259415</v>
+        <v>51.2698028267248</v>
       </c>
       <c r="E44" t="n">
-        <v>51.6220151938541</v>
+        <v>51.6220151947823</v>
       </c>
       <c r="F44" t="n">
-        <v>52.1282438107766</v>
+        <v>52.1282438117051</v>
       </c>
       <c r="G44" t="n">
-        <v>51.0666304333814</v>
+        <v>51.0666304343081</v>
       </c>
       <c r="H44" t="n">
-        <v>51.137113113884</v>
+        <v>51.13711311481</v>
       </c>
       <c r="I44" t="n">
-        <v>53.3689571278818</v>
+        <v>53.3689571288099</v>
       </c>
       <c r="J44" t="n">
-        <v>53.3689571278818</v>
+        <v>53.3689571288099</v>
       </c>
       <c r="K44" t="n">
-        <v>5.75091674443715</v>
+        <v>5.75091674493875</v>
       </c>
     </row>
     <row r="45">
@@ -17678,31 +17678,31 @@
         <v>55</v>
       </c>
       <c r="C45" t="n">
-        <v>49.5838554650422</v>
+        <v>49.5838554651581</v>
       </c>
       <c r="D45" t="n">
-        <v>47.9986300338484</v>
+        <v>47.9986300343619</v>
       </c>
       <c r="E45" t="n">
-        <v>47.914209820079</v>
+        <v>47.9142098209937</v>
       </c>
       <c r="F45" t="n">
-        <v>47.8709757043928</v>
+        <v>47.8709757053082</v>
       </c>
       <c r="G45" t="n">
-        <v>48.4964521447782</v>
+        <v>48.4964521456948</v>
       </c>
       <c r="H45" t="n">
-        <v>49.8494106741028</v>
+        <v>49.8494106750203</v>
       </c>
       <c r="I45" t="n">
-        <v>54.271304823303</v>
+        <v>54.2713048242257</v>
       </c>
       <c r="J45" t="n">
-        <v>54.271304823303</v>
+        <v>54.2713048242257</v>
       </c>
       <c r="K45" t="n">
-        <v>9.45357982814714</v>
+        <v>9.45357982975201</v>
       </c>
     </row>
     <row r="46">
@@ -17713,31 +17713,31 @@
         <v>56</v>
       </c>
       <c r="C46" t="n">
-        <v>39.8903885885524</v>
+        <v>39.8903885890282</v>
       </c>
       <c r="D46" t="n">
-        <v>40.8563896264163</v>
+        <v>40.8563896275522</v>
       </c>
       <c r="E46" t="n">
-        <v>40.1439624032031</v>
+        <v>40.1439624036703</v>
       </c>
       <c r="F46" t="n">
-        <v>40.3634994208135</v>
+        <v>40.3634994212807</v>
       </c>
       <c r="G46" t="n">
-        <v>39.8777833126914</v>
+        <v>39.8777833131574</v>
       </c>
       <c r="H46" t="n">
-        <v>40.1351431807371</v>
+        <v>40.1351431812037</v>
       </c>
       <c r="I46" t="n">
-        <v>39.8141132442768</v>
+        <v>39.8141132447441</v>
       </c>
       <c r="J46" t="n">
-        <v>39.8141132442768</v>
+        <v>39.8141132447441</v>
       </c>
       <c r="K46" t="n">
-        <v>-0.191212337042634</v>
+        <v>-0.191212337061919</v>
       </c>
     </row>
     <row r="47">
@@ -17748,31 +17748,31 @@
         <v>57</v>
       </c>
       <c r="C47" t="n">
-        <v>56.9074780089276</v>
+        <v>56.907478009913</v>
       </c>
       <c r="D47" t="n">
-        <v>58.4353482083728</v>
+        <v>58.4353482092668</v>
       </c>
       <c r="E47" t="n">
-        <v>58.9953075353581</v>
+        <v>58.9953075363792</v>
       </c>
       <c r="F47" t="n">
-        <v>59.7393536669973</v>
+        <v>59.739353668019</v>
       </c>
       <c r="G47" t="n">
-        <v>57.0629455695139</v>
+        <v>57.062945570531</v>
       </c>
       <c r="H47" t="n">
-        <v>55.861381520545</v>
+        <v>55.8613815215591</v>
       </c>
       <c r="I47" t="n">
-        <v>57.6741801773003</v>
+        <v>57.674180178317</v>
       </c>
       <c r="J47" t="n">
-        <v>57.6741801773003</v>
+        <v>57.674180178317</v>
       </c>
       <c r="K47" t="n">
-        <v>1.34727841612026</v>
+        <v>1.34727841615205</v>
       </c>
     </row>
     <row r="48">
@@ -17783,31 +17783,31 @@
         <v>58</v>
       </c>
       <c r="C48" t="n">
-        <v>23.3182777878447</v>
+        <v>23.3182777885465</v>
       </c>
       <c r="D48" t="n">
-        <v>20.8483507119372</v>
+        <v>20.848350712637</v>
       </c>
       <c r="E48" t="n">
-        <v>20.1240797360123</v>
+        <v>20.1240797367119</v>
       </c>
       <c r="F48" t="n">
-        <v>18.9096797379534</v>
+        <v>18.9096797386502</v>
       </c>
       <c r="G48" t="n">
-        <v>19.3499782202465</v>
+        <v>19.3499782209439</v>
       </c>
       <c r="H48" t="n">
-        <v>19.5193245871302</v>
+        <v>19.5193245878285</v>
       </c>
       <c r="I48" t="n">
-        <v>21.6612311216097</v>
+        <v>21.6612311223108</v>
       </c>
       <c r="J48" t="n">
-        <v>21.6612311216097</v>
+        <v>21.6612311223108</v>
       </c>
       <c r="K48" t="n">
-        <v>-7.10621376634757</v>
+        <v>-7.10621376613687</v>
       </c>
     </row>
     <row r="49">
@@ -17818,31 +17818,31 @@
         <v>59</v>
       </c>
       <c r="C49" t="n">
-        <v>45.2400547638446</v>
+        <v>45.240054764911</v>
       </c>
       <c r="D49" t="n">
-        <v>45.9089634110296</v>
+        <v>45.9089634120259</v>
       </c>
       <c r="E49" t="n">
-        <v>45.4624163531344</v>
+        <v>45.4624163540678</v>
       </c>
       <c r="F49" t="n">
-        <v>45.9520888583743</v>
+        <v>45.9520888593082</v>
       </c>
       <c r="G49" t="n">
-        <v>45.9509607237749</v>
+        <v>45.9509607247084</v>
       </c>
       <c r="H49" t="n">
-        <v>45.8077169889177</v>
+        <v>45.8077169898508</v>
       </c>
       <c r="I49" t="n">
-        <v>46.1121702779975</v>
+        <v>46.1121702789308</v>
       </c>
       <c r="J49" t="n">
-        <v>46.1121702779975</v>
+        <v>46.1121702789308</v>
       </c>
       <c r="K49" t="n">
-        <v>1.92775079231313</v>
+        <v>1.92775079197345</v>
       </c>
     </row>
     <row r="50">
@@ -17853,31 +17853,31 @@
         <v>60</v>
       </c>
       <c r="C50" t="n">
-        <v>41.7252977388647</v>
+        <v>41.7252977397881</v>
       </c>
       <c r="D50" t="n">
-        <v>41.2530365473966</v>
+        <v>41.2530365484453</v>
       </c>
       <c r="E50" t="n">
-        <v>41.034245465538</v>
+        <v>41.0342454664838</v>
       </c>
       <c r="F50" t="n">
-        <v>40.4313293297598</v>
+        <v>40.4313293307046</v>
       </c>
       <c r="G50" t="n">
-        <v>40.194545901705</v>
+        <v>40.1945459026496</v>
       </c>
       <c r="H50" t="n">
-        <v>41.1343927137559</v>
+        <v>41.1343927147019</v>
       </c>
       <c r="I50" t="n">
-        <v>40.5691290154024</v>
+        <v>40.5691290163469</v>
       </c>
       <c r="J50" t="n">
-        <v>40.5691290154024</v>
+        <v>40.5691290163469</v>
       </c>
       <c r="K50" t="n">
-        <v>-2.77090586794148</v>
+        <v>-2.77090586782973</v>
       </c>
     </row>
     <row r="51">
@@ -17888,31 +17888,31 @@
         <v>61</v>
       </c>
       <c r="C51" t="n">
-        <v>41.7252977388647</v>
+        <v>41.7252977397881</v>
       </c>
       <c r="D51" t="n">
-        <v>41.2530365473966</v>
+        <v>41.2530365484453</v>
       </c>
       <c r="E51" t="n">
-        <v>41.034245465538</v>
+        <v>41.0342454664838</v>
       </c>
       <c r="F51" t="n">
-        <v>40.4313293297598</v>
+        <v>40.4313293307046</v>
       </c>
       <c r="G51" t="n">
-        <v>40.194545901705</v>
+        <v>40.1945459026496</v>
       </c>
       <c r="H51" t="n">
-        <v>41.1343927137559</v>
+        <v>41.1343927147019</v>
       </c>
       <c r="I51" t="n">
-        <v>40.5691290154024</v>
+        <v>40.5691290163469</v>
       </c>
       <c r="J51" t="n">
-        <v>40.5691290154024</v>
+        <v>40.5691290163469</v>
       </c>
       <c r="K51" t="n">
-        <v>-2.77090586794148</v>
+        <v>-2.77090586782973</v>
       </c>
     </row>
     <row r="52">
@@ -17923,31 +17923,31 @@
         <v>62</v>
       </c>
       <c r="C52" t="n">
-        <v>39.2762523636421</v>
+        <v>39.2762523645771</v>
       </c>
       <c r="D52" t="n">
-        <v>38.4670231707848</v>
+        <v>38.4670231718529</v>
       </c>
       <c r="E52" t="n">
-        <v>38.2611135150563</v>
+        <v>38.2611135160151</v>
       </c>
       <c r="F52" t="n">
-        <v>37.6192540253928</v>
+        <v>37.6192540263505</v>
       </c>
       <c r="G52" t="n">
-        <v>37.3748532021291</v>
+        <v>37.3748532030866</v>
       </c>
       <c r="H52" t="n">
-        <v>38.3096987629459</v>
+        <v>38.3096987639047</v>
       </c>
       <c r="I52" t="n">
-        <v>37.7067558429518</v>
+        <v>37.706755843909</v>
       </c>
       <c r="J52" t="n">
-        <v>37.7067558429518</v>
+        <v>37.706755843909</v>
       </c>
       <c r="K52" t="n">
-        <v>-3.99604449568907</v>
+        <v>-3.99604449553751</v>
       </c>
     </row>
     <row r="53">
@@ -17958,31 +17958,31 @@
         <v>63</v>
       </c>
       <c r="C53" t="n">
-        <v>29.8012383159123</v>
+        <v>29.8012383171949</v>
       </c>
       <c r="D53" t="n">
-        <v>29.580839565047</v>
+        <v>29.5808395659575</v>
       </c>
       <c r="E53" t="n">
-        <v>30.330699602629</v>
+        <v>30.330699603287</v>
       </c>
       <c r="F53" t="n">
-        <v>30.3016343277593</v>
+        <v>30.3016343284421</v>
       </c>
       <c r="G53" t="n">
-        <v>30.7277952998841</v>
+        <v>30.7277953005665</v>
       </c>
       <c r="H53" t="n">
-        <v>30.3191108230423</v>
+        <v>30.3191108237245</v>
       </c>
       <c r="I53" t="n">
-        <v>30.630427820318</v>
+        <v>30.6304278210011</v>
       </c>
       <c r="J53" t="n">
-        <v>30.630427820318</v>
+        <v>30.6304278210011</v>
       </c>
       <c r="K53" t="n">
-        <v>2.78239949499994</v>
+        <v>2.78239949286849</v>
       </c>
     </row>
     <row r="54">
@@ -17993,31 +17993,31 @@
         <v>64</v>
       </c>
       <c r="C54" t="n">
-        <v>29.8012383159123</v>
+        <v>29.8012383171949</v>
       </c>
       <c r="D54" t="n">
-        <v>29.580839565047</v>
+        <v>29.5808395659575</v>
       </c>
       <c r="E54" t="n">
-        <v>30.330699602629</v>
+        <v>30.330699603287</v>
       </c>
       <c r="F54" t="n">
-        <v>30.3016343277593</v>
+        <v>30.3016343284421</v>
       </c>
       <c r="G54" t="n">
-        <v>30.7277952998841</v>
+        <v>30.7277953005665</v>
       </c>
       <c r="H54" t="n">
-        <v>30.3191108230423</v>
+        <v>30.3191108237245</v>
       </c>
       <c r="I54" t="n">
-        <v>30.630427820318</v>
+        <v>30.6304278210011</v>
       </c>
       <c r="J54" t="n">
-        <v>30.630427820318</v>
+        <v>30.6304278210011</v>
       </c>
       <c r="K54" t="n">
-        <v>2.78239949499994</v>
+        <v>2.78239949286849</v>
       </c>
     </row>
     <row r="55">
@@ -18028,31 +18028,31 @@
         <v>65</v>
       </c>
       <c r="C55" t="n">
-        <v>29.8012383159123</v>
+        <v>29.8012383171949</v>
       </c>
       <c r="D55" t="n">
-        <v>29.580839565047</v>
+        <v>29.5808395659575</v>
       </c>
       <c r="E55" t="n">
-        <v>30.330699602629</v>
+        <v>30.330699603287</v>
       </c>
       <c r="F55" t="n">
-        <v>30.3016343277593</v>
+        <v>30.3016343284421</v>
       </c>
       <c r="G55" t="n">
-        <v>30.7277952998841</v>
+        <v>30.7277953005665</v>
       </c>
       <c r="H55" t="n">
-        <v>30.3191108230423</v>
+        <v>30.3191108237245</v>
       </c>
       <c r="I55" t="n">
-        <v>30.630427820318</v>
+        <v>30.6304278210011</v>
       </c>
       <c r="J55" t="n">
-        <v>30.630427820318</v>
+        <v>30.6304278210011</v>
       </c>
       <c r="K55" t="n">
-        <v>2.78239949499994</v>
+        <v>2.78239949286849</v>
       </c>
     </row>
     <row r="56">
@@ -18063,31 +18063,31 @@
         <v>66</v>
       </c>
       <c r="C56" t="n">
-        <v>59.6398840596038</v>
+        <v>59.6398840604478</v>
       </c>
       <c r="D56" t="n">
-        <v>60.4780919354814</v>
+        <v>60.4780919364276</v>
       </c>
       <c r="E56" t="n">
-        <v>60.208348675137</v>
+        <v>60.208348676106</v>
       </c>
       <c r="F56" t="n">
-        <v>60.3137588491346</v>
+        <v>60.3137588501036</v>
       </c>
       <c r="G56" t="n">
-        <v>59.92129850503</v>
+        <v>59.9212985059978</v>
       </c>
       <c r="H56" t="n">
-        <v>59.0629934004583</v>
+        <v>59.0629934014245</v>
       </c>
       <c r="I56" t="n">
-        <v>60.244903104012</v>
+        <v>60.24490310498</v>
       </c>
       <c r="J56" t="n">
-        <v>60.244903104012</v>
+        <v>60.24490310498</v>
       </c>
       <c r="K56" t="n">
-        <v>1.01445375682414</v>
+        <v>1.01445375701776</v>
       </c>
     </row>
     <row r="57">
@@ -18098,31 +18098,31 @@
         <v>67</v>
       </c>
       <c r="C57" t="n">
-        <v>51.8773674334275</v>
+        <v>51.8773674343804</v>
       </c>
       <c r="D57" t="n">
-        <v>52.0424370215441</v>
+        <v>52.0424370225581</v>
       </c>
       <c r="E57" t="n">
-        <v>51.3091549904947</v>
+        <v>51.3091549915956</v>
       </c>
       <c r="F57" t="n">
-        <v>51.2527635640219</v>
+        <v>51.2527635651231</v>
       </c>
       <c r="G57" t="n">
-        <v>51.3084071035093</v>
+        <v>51.3084071046099</v>
       </c>
       <c r="H57" t="n">
-        <v>50.6391232311549</v>
+        <v>50.6391232322541</v>
       </c>
       <c r="I57" t="n">
-        <v>52.3903891116189</v>
+        <v>52.3903891127205</v>
       </c>
       <c r="J57" t="n">
-        <v>52.3903891116189</v>
+        <v>52.3903891127205</v>
       </c>
       <c r="K57" t="n">
-        <v>0.988912320675639</v>
+        <v>0.988912320944357</v>
       </c>
     </row>
     <row r="58">
@@ -18133,31 +18133,31 @@
         <v>68</v>
       </c>
       <c r="C58" t="n">
-        <v>14.898262810882</v>
+        <v>14.8982628119229</v>
       </c>
       <c r="D58" t="n">
-        <v>14.0232086997168</v>
+        <v>14.0232086993053</v>
       </c>
       <c r="E58" t="n">
-        <v>12.7560208512744</v>
+        <v>12.7560208508718</v>
       </c>
       <c r="F58" t="n">
-        <v>13.1376988155323</v>
+        <v>13.1376988151307</v>
       </c>
       <c r="G58" t="n">
-        <v>12.9708118857992</v>
+        <v>12.9708118853974</v>
       </c>
       <c r="H58" t="n">
-        <v>13.933046795008</v>
+        <v>13.933046794607</v>
       </c>
       <c r="I58" t="n">
-        <v>15.3139822581834</v>
+        <v>15.3139822577824</v>
       </c>
       <c r="J58" t="n">
-        <v>15.3139822581834</v>
+        <v>15.3139822577824</v>
       </c>
       <c r="K58" t="n">
-        <v>2.79038873577724</v>
+        <v>2.79038872590458</v>
       </c>
     </row>
     <row r="59">
@@ -18168,31 +18168,31 @@
         <v>69</v>
       </c>
       <c r="C59" t="n">
-        <v>36.4848140072064</v>
+        <v>36.4848140082621</v>
       </c>
       <c r="D59" t="n">
-        <v>36.7573017567069</v>
+        <v>36.7573017576555</v>
       </c>
       <c r="E59" t="n">
-        <v>36.8938336274342</v>
+        <v>36.8938336282416</v>
       </c>
       <c r="F59" t="n">
-        <v>36.46377242742</v>
+        <v>36.4637724282339</v>
       </c>
       <c r="G59" t="n">
-        <v>35.9342952230911</v>
+        <v>35.9342952239037</v>
       </c>
       <c r="H59" t="n">
-        <v>36.3767260810922</v>
+        <v>36.3767260819051</v>
       </c>
       <c r="I59" t="n">
-        <v>35.5444948989091</v>
+        <v>35.5444948997203</v>
       </c>
       <c r="J59" t="n">
-        <v>35.5444948989091</v>
+        <v>35.5444948997203</v>
       </c>
       <c r="K59" t="n">
-        <v>-2.57728902800914</v>
+        <v>-2.57728902860488</v>
       </c>
     </row>
     <row r="60">
@@ -18203,31 +18203,31 @@
         <v>70</v>
       </c>
       <c r="C60" t="n">
-        <v>43.7619847514587</v>
+        <v>43.7619847524391</v>
       </c>
       <c r="D60" t="n">
-        <v>43.9753648765493</v>
+        <v>43.9753648774726</v>
       </c>
       <c r="E60" t="n">
-        <v>43.7003933111337</v>
+        <v>43.7003933120189</v>
       </c>
       <c r="F60" t="n">
-        <v>43.6404189927095</v>
+        <v>43.6404189935982</v>
       </c>
       <c r="G60" t="n">
-        <v>43.4527583711211</v>
+        <v>43.452758372009</v>
       </c>
       <c r="H60" t="n">
-        <v>43.4302972942045</v>
+        <v>43.430297295092</v>
       </c>
       <c r="I60" t="n">
-        <v>43.7159624582361</v>
+        <v>43.7159624591237</v>
       </c>
       <c r="J60" t="n">
-        <v>43.7159624582361</v>
+        <v>43.7159624591237</v>
       </c>
       <c r="K60" t="n">
-        <v>-0.105165004475949</v>
+        <v>-0.105165004685737</v>
       </c>
     </row>
     <row r="61">
@@ -18238,31 +18238,31 @@
         <v>71</v>
       </c>
       <c r="C61" t="n">
-        <v>48.1896954425191</v>
+        <v>48.1896954434043</v>
       </c>
       <c r="D61" t="n">
-        <v>49.6901108696578</v>
+        <v>49.6901108705808</v>
       </c>
       <c r="E61" t="n">
-        <v>48.4474101092552</v>
+        <v>48.4474101102468</v>
       </c>
       <c r="F61" t="n">
-        <v>48.4543865565795</v>
+        <v>48.4543865575718</v>
       </c>
       <c r="G61" t="n">
-        <v>49.1947310105406</v>
+        <v>49.1947310115337</v>
       </c>
       <c r="H61" t="n">
-        <v>47.7800358580752</v>
+        <v>47.7800358590662</v>
       </c>
       <c r="I61" t="n">
-        <v>48.0872377449112</v>
+        <v>48.0872377459018</v>
       </c>
       <c r="J61" t="n">
-        <v>48.0872377449112</v>
+        <v>48.0872377459018</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.212613291424713</v>
+        <v>-0.212613291202135</v>
       </c>
     </row>
     <row r="62">
@@ -18273,31 +18273,31 @@
         <v>72</v>
       </c>
       <c r="C62" t="n">
-        <v>50.5321119981844</v>
+        <v>50.5321119991051</v>
       </c>
       <c r="D62" t="n">
-        <v>50.4159182498885</v>
+        <v>50.4159182507852</v>
       </c>
       <c r="E62" t="n">
-        <v>49.9070000565646</v>
+        <v>49.9070000575097</v>
       </c>
       <c r="F62" t="n">
-        <v>50.2241654918348</v>
+        <v>50.224165492781</v>
       </c>
       <c r="G62" t="n">
-        <v>50.205064734443</v>
+        <v>50.2050647353887</v>
       </c>
       <c r="H62" t="n">
-        <v>49.9803513268782</v>
+        <v>49.9803513278231</v>
       </c>
       <c r="I62" t="n">
-        <v>51.4427201029319</v>
+        <v>51.4427201038789</v>
       </c>
       <c r="J62" t="n">
-        <v>51.4427201029319</v>
+        <v>51.4427201038789</v>
       </c>
       <c r="K62" t="n">
-        <v>1.80203848352949</v>
+        <v>1.80203848354878</v>
       </c>
     </row>
     <row r="63">
@@ -18308,31 +18308,31 @@
         <v>73</v>
       </c>
       <c r="C63" t="n">
-        <v>50.1295091526794</v>
+        <v>50.129509153594</v>
       </c>
       <c r="D63" t="n">
-        <v>50.2911701064114</v>
+        <v>50.2911701073125</v>
       </c>
       <c r="E63" t="n">
-        <v>49.6561330343708</v>
+        <v>49.6561330353239</v>
       </c>
       <c r="F63" t="n">
-        <v>49.9199847373378</v>
+        <v>49.9199847382919</v>
       </c>
       <c r="G63" t="n">
-        <v>50.0314136256472</v>
+        <v>50.0314136266012</v>
       </c>
       <c r="H63" t="n">
-        <v>49.6021721056777</v>
+        <v>49.6021721066305</v>
       </c>
       <c r="I63" t="n">
-        <v>50.8659965726471</v>
+        <v>50.8659965736016</v>
       </c>
       <c r="J63" t="n">
-        <v>50.8659965726471</v>
+        <v>50.8659965736016</v>
       </c>
       <c r="K63" t="n">
-        <v>1.46916942219513</v>
+        <v>1.46916942224797</v>
       </c>
     </row>
     <row r="64">
@@ -18343,31 +18343,31 @@
         <v>74</v>
       </c>
       <c r="C64" t="n">
-        <v>29.4337576127</v>
+        <v>29.4337576135083</v>
       </c>
       <c r="D64" t="n">
-        <v>29.0785706811125</v>
+        <v>29.0785706817438</v>
       </c>
       <c r="E64" t="n">
-        <v>29.1075715257969</v>
+        <v>29.1075715262428</v>
       </c>
       <c r="F64" t="n">
-        <v>28.1472682343612</v>
+        <v>28.1472682348214</v>
       </c>
       <c r="G64" t="n">
-        <v>27.6386381756896</v>
+        <v>27.6386381761485</v>
       </c>
       <c r="H64" t="n">
-        <v>27.9711904774744</v>
+        <v>27.9711904779334</v>
       </c>
       <c r="I64" t="n">
-        <v>27.5092863613953</v>
+        <v>27.5092863618532</v>
       </c>
       <c r="J64" t="n">
-        <v>27.5092863613953</v>
+        <v>27.5092863618532</v>
       </c>
       <c r="K64" t="n">
-        <v>-6.53831317301586</v>
+        <v>-6.53831317402671</v>
       </c>
     </row>
     <row r="65">
@@ -18378,31 +18378,31 @@
         <v>75</v>
       </c>
       <c r="C65" t="n">
-        <v>37.5399858088909</v>
+        <v>37.5399858098651</v>
       </c>
       <c r="D65" t="n">
-        <v>37.9482934965796</v>
+        <v>37.9482934974675</v>
       </c>
       <c r="E65" t="n">
-        <v>37.1536709292354</v>
+        <v>37.1536709300625</v>
       </c>
       <c r="F65" t="n">
-        <v>36.6936535114368</v>
+        <v>36.6936535122631</v>
       </c>
       <c r="G65" t="n">
-        <v>36.9521769444489</v>
+        <v>36.952176945275</v>
       </c>
       <c r="H65" t="n">
-        <v>37.3869902393556</v>
+        <v>37.3869902401828</v>
       </c>
       <c r="I65" t="n">
-        <v>37.980655056418</v>
+        <v>37.9806550572459</v>
       </c>
       <c r="J65" t="n">
-        <v>37.980655056418</v>
+        <v>37.9806550572459</v>
       </c>
       <c r="K65" t="n">
-        <v>1.17386631356351</v>
+        <v>1.17386631314327</v>
       </c>
     </row>
     <row r="66">
@@ -18413,31 +18413,31 @@
         <v>76</v>
       </c>
       <c r="C66" t="n">
-        <v>37.9271588182472</v>
+        <v>37.9271588191661</v>
       </c>
       <c r="D66" t="n">
-        <v>38.4737503995699</v>
+        <v>38.4737504005435</v>
       </c>
       <c r="E66" t="n">
-        <v>37.7484200264146</v>
+        <v>37.7484200273233</v>
       </c>
       <c r="F66" t="n">
-        <v>37.3282522093849</v>
+        <v>37.3282522102929</v>
       </c>
       <c r="G66" t="n">
-        <v>37.6219750074716</v>
+        <v>37.6219750083794</v>
       </c>
       <c r="H66" t="n">
-        <v>37.9505098395418</v>
+        <v>37.9505098404507</v>
       </c>
       <c r="I66" t="n">
-        <v>38.5381326409786</v>
+        <v>38.5381326418881</v>
       </c>
       <c r="J66" t="n">
-        <v>38.5381326409786</v>
+        <v>38.5381326418881</v>
       </c>
       <c r="K66" t="n">
-        <v>1.6109137667264</v>
+        <v>1.61091376666298</v>
       </c>
     </row>
     <row r="67">
@@ -18448,31 +18448,31 @@
         <v>77</v>
       </c>
       <c r="C67" t="n">
-        <v>36.8829007944955</v>
+        <v>36.8829007954593</v>
       </c>
       <c r="D67" t="n">
-        <v>37.373264939019</v>
+        <v>37.3732649398923</v>
       </c>
       <c r="E67" t="n">
-        <v>36.5147123603967</v>
+        <v>36.5147123612062</v>
       </c>
       <c r="F67" t="n">
-        <v>36.037254249794</v>
+        <v>36.0372542506027</v>
       </c>
       <c r="G67" t="n">
-        <v>36.2846541003582</v>
+        <v>36.2846541011667</v>
       </c>
       <c r="H67" t="n">
-        <v>36.7639268833773</v>
+        <v>36.7639268841869</v>
       </c>
       <c r="I67" t="n">
-        <v>37.4525832519682</v>
+        <v>37.4525832527787</v>
       </c>
       <c r="J67" t="n">
-        <v>37.4525832519682</v>
+        <v>37.4525832527787</v>
       </c>
       <c r="K67" t="n">
-        <v>1.54457064168279</v>
+        <v>1.54457064122659</v>
       </c>
     </row>
     <row r="68">
@@ -18483,31 +18483,31 @@
         <v>78</v>
       </c>
       <c r="C68" t="n">
-        <v>52.2995106628921</v>
+        <v>52.2995106638386</v>
       </c>
       <c r="D68" t="n">
-        <v>52.078888872447</v>
+        <v>52.0788888734298</v>
       </c>
       <c r="E68" t="n">
-        <v>51.7237715931845</v>
+        <v>51.7237715942119</v>
       </c>
       <c r="F68" t="n">
-        <v>51.6674857862055</v>
+        <v>51.667485787233</v>
       </c>
       <c r="G68" t="n">
-        <v>51.7121745064829</v>
+        <v>51.71217450751</v>
       </c>
       <c r="H68" t="n">
-        <v>51.4174160194426</v>
+        <v>51.4174160204684</v>
       </c>
       <c r="I68" t="n">
-        <v>52.2769655759922</v>
+        <v>52.2769655770191</v>
       </c>
       <c r="J68" t="n">
-        <v>52.2769655759922</v>
+        <v>52.2769655770191</v>
       </c>
       <c r="K68" t="n">
-        <v>-0.0431076440566946</v>
+        <v>-0.0431076439020961</v>
       </c>
     </row>
     <row r="69">
@@ -18518,31 +18518,31 @@
         <v>79</v>
       </c>
       <c r="C69" t="n">
-        <v>44.6720578141418</v>
+        <v>44.6720578151169</v>
       </c>
       <c r="D69" t="n">
-        <v>45.0167215178095</v>
+        <v>45.0167215187521</v>
       </c>
       <c r="E69" t="n">
-        <v>44.7759791718279</v>
+        <v>44.7759791727325</v>
       </c>
       <c r="F69" t="n">
-        <v>44.6801901282752</v>
+        <v>44.6801901291832</v>
       </c>
       <c r="G69" t="n">
-        <v>44.5068867604653</v>
+        <v>44.5068867613726</v>
       </c>
       <c r="H69" t="n">
-        <v>44.4189121692934</v>
+        <v>44.4189121702003</v>
       </c>
       <c r="I69" t="n">
-        <v>44.7437127321107</v>
+        <v>44.7437127330178</v>
       </c>
       <c r="J69" t="n">
-        <v>44.7437127321107</v>
+        <v>44.7437127330178</v>
       </c>
       <c r="K69" t="n">
-        <v>0.160402098034274</v>
+        <v>0.160402097878398</v>
       </c>
     </row>
     <row r="70">
@@ -18553,31 +18553,31 @@
         <v>80</v>
       </c>
       <c r="C70" t="n">
-        <v>60.5571578040592</v>
+        <v>60.557157805064</v>
       </c>
       <c r="D70" t="n">
-        <v>61.0185057010663</v>
+        <v>61.0185057021833</v>
       </c>
       <c r="E70" t="n">
-        <v>60.7110783526405</v>
+        <v>60.7110783537386</v>
       </c>
       <c r="F70" t="n">
-        <v>61.1539507472927</v>
+        <v>61.1539507483925</v>
       </c>
       <c r="G70" t="n">
-        <v>61.4363680982072</v>
+        <v>61.4363680993066</v>
       </c>
       <c r="H70" t="n">
-        <v>61.0957007804242</v>
+        <v>61.0957007815223</v>
       </c>
       <c r="I70" t="n">
-        <v>62.3245783120568</v>
+        <v>62.3245783131567</v>
       </c>
       <c r="J70" t="n">
-        <v>62.3245783120568</v>
+        <v>62.3245783131567</v>
       </c>
       <c r="K70" t="n">
-        <v>2.91859884460939</v>
+        <v>2.9185988447181</v>
       </c>
     </row>
     <row r="71">
@@ -18588,31 +18588,31 @@
         <v>81</v>
       </c>
       <c r="C71" t="n">
-        <v>42.0127843482274</v>
+        <v>42.0127843491844</v>
       </c>
       <c r="D71" t="n">
-        <v>42.3362787904989</v>
+        <v>42.3362787914954</v>
       </c>
       <c r="E71" t="n">
-        <v>42.0119811399744</v>
+        <v>42.0119811409689</v>
       </c>
       <c r="F71" t="n">
-        <v>42.0467066718755</v>
+        <v>42.04670667287</v>
       </c>
       <c r="G71" t="n">
-        <v>41.7680300556908</v>
+        <v>41.7680300566848</v>
       </c>
       <c r="H71" t="n">
-        <v>41.424853910185</v>
+        <v>41.4248539111781</v>
       </c>
       <c r="I71" t="n">
-        <v>42.0553232370721</v>
+        <v>42.0553232380661</v>
       </c>
       <c r="J71" t="n">
-        <v>42.0553232370721</v>
+        <v>42.0553232380661</v>
       </c>
       <c r="K71" t="n">
-        <v>0.101252248582417</v>
+        <v>0.101252248668127</v>
       </c>
     </row>
     <row r="72">
@@ -18623,31 +18623,31 @@
         <v>82</v>
       </c>
       <c r="C72" t="n">
-        <v>54.4661595966162</v>
+        <v>54.466159597726</v>
       </c>
       <c r="D72" t="n">
-        <v>56.1760443140161</v>
+        <v>56.1760443149065</v>
       </c>
       <c r="E72" t="n">
-        <v>56.6577039019823</v>
+        <v>56.6577039028723</v>
       </c>
       <c r="F72" t="n">
-        <v>57.4757719772981</v>
+        <v>57.4757719781885</v>
       </c>
       <c r="G72" t="n">
-        <v>55.5505567888752</v>
+        <v>55.5505567897621</v>
       </c>
       <c r="H72" t="n">
-        <v>54.6842132138688</v>
+        <v>54.6842132147528</v>
       </c>
       <c r="I72" t="n">
-        <v>54.8998881275844</v>
+        <v>54.8998881284685</v>
       </c>
       <c r="J72" t="n">
-        <v>54.8998881275844</v>
+        <v>54.8998881284685</v>
       </c>
       <c r="K72" t="n">
-        <v>0.796326625891064</v>
+        <v>0.796326625460497</v>
       </c>
     </row>
     <row r="73">
@@ -18658,31 +18658,31 @@
         <v>83</v>
       </c>
       <c r="C73" t="n">
-        <v>54.4661595966162</v>
+        <v>54.466159597726</v>
       </c>
       <c r="D73" t="n">
-        <v>56.1760443140161</v>
+        <v>56.1760443149065</v>
       </c>
       <c r="E73" t="n">
-        <v>56.6577039019823</v>
+        <v>56.6577039028723</v>
       </c>
       <c r="F73" t="n">
-        <v>57.4757719772981</v>
+        <v>57.4757719781885</v>
       </c>
       <c r="G73" t="n">
-        <v>55.5505567888752</v>
+        <v>55.5505567897621</v>
       </c>
       <c r="H73" t="n">
-        <v>54.6842132138688</v>
+        <v>54.6842132147528</v>
       </c>
       <c r="I73" t="n">
-        <v>54.8998881275844</v>
+        <v>54.8998881284685</v>
       </c>
       <c r="J73" t="n">
-        <v>54.8998881275844</v>
+        <v>54.8998881284685</v>
       </c>
       <c r="K73" t="n">
-        <v>0.796326625891064</v>
+        <v>0.796326625460497</v>
       </c>
     </row>
     <row r="74">
@@ -18693,31 +18693,31 @@
         <v>84</v>
       </c>
       <c r="C74" t="n">
-        <v>54.6645361364469</v>
+        <v>54.6645361376072</v>
       </c>
       <c r="D74" t="n">
-        <v>55.6283962862269</v>
+        <v>55.6283962871482</v>
       </c>
       <c r="E74" t="n">
-        <v>56.0440854622792</v>
+        <v>56.0440854631998</v>
       </c>
       <c r="F74" t="n">
-        <v>57.225257051798</v>
+        <v>57.2252570527202</v>
       </c>
       <c r="G74" t="n">
-        <v>55.0687986602653</v>
+        <v>55.0687986611839</v>
       </c>
       <c r="H74" t="n">
-        <v>54.6794778579953</v>
+        <v>54.6794778589111</v>
       </c>
       <c r="I74" t="n">
-        <v>54.1588355387654</v>
+        <v>54.1588355396794</v>
       </c>
       <c r="J74" t="n">
-        <v>54.1588355387654</v>
+        <v>54.1588355396794</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.925098122883938</v>
+        <v>-0.925098123315016</v>
       </c>
     </row>
     <row r="75">
@@ -18728,31 +18728,31 @@
         <v>85</v>
       </c>
       <c r="C75" t="n">
-        <v>39.6647980347113</v>
+        <v>39.664798035677</v>
       </c>
       <c r="D75" t="n">
-        <v>39.9726808513481</v>
+        <v>39.9726808522357</v>
       </c>
       <c r="E75" t="n">
-        <v>39.752958777876</v>
+        <v>39.7529587787197</v>
       </c>
       <c r="F75" t="n">
-        <v>39.4873742809762</v>
+        <v>39.4873742818237</v>
       </c>
       <c r="G75" t="n">
-        <v>39.1704198170467</v>
+        <v>39.1704198178934</v>
       </c>
       <c r="H75" t="n">
-        <v>39.1620983679588</v>
+        <v>39.1620983688053</v>
       </c>
       <c r="I75" t="n">
-        <v>39.2019181471277</v>
+        <v>39.201918147974</v>
       </c>
       <c r="J75" t="n">
-        <v>39.2019181471277</v>
+        <v>39.201918147974</v>
       </c>
       <c r="K75" t="n">
-        <v>-1.1669790608248</v>
+        <v>-1.16697906109771</v>
       </c>
     </row>
     <row r="76">
@@ -18763,31 +18763,31 @@
         <v>86</v>
       </c>
       <c r="C76" t="n">
-        <v>41.3872852907853</v>
+        <v>41.3872852918235</v>
       </c>
       <c r="D76" t="n">
-        <v>44.3675987131314</v>
+        <v>44.3675987138425</v>
       </c>
       <c r="E76" t="n">
-        <v>45.5052835960453</v>
+        <v>45.5052835977041</v>
       </c>
       <c r="F76" t="n">
-        <v>45.2166973891237</v>
+        <v>45.2166973907819</v>
       </c>
       <c r="G76" t="n">
-        <v>48.461525741399</v>
+        <v>48.4615257430613</v>
       </c>
       <c r="H76" t="n">
-        <v>50.8254199001205</v>
+        <v>50.825419901788</v>
       </c>
       <c r="I76" t="n">
-        <v>51.7722692471815</v>
+        <v>51.7722692488514</v>
       </c>
       <c r="J76" t="n">
-        <v>51.7722692471815</v>
+        <v>51.7722692488514</v>
       </c>
       <c r="K76" t="n">
-        <v>25.0922085936096</v>
+        <v>25.0922085945067</v>
       </c>
     </row>
     <row r="77">
@@ -18798,31 +18798,31 @@
         <v>87</v>
       </c>
       <c r="C77" t="n">
-        <v>37.6899520580732</v>
+        <v>37.6899520591456</v>
       </c>
       <c r="D77" t="n">
-        <v>36.5369357831136</v>
+        <v>36.5369357840632</v>
       </c>
       <c r="E77" t="n">
-        <v>35.8333446995474</v>
+        <v>35.8333447006192</v>
       </c>
       <c r="F77" t="n">
-        <v>36.1397421414736</v>
+        <v>36.1397421425457</v>
       </c>
       <c r="G77" t="n">
-        <v>36.0630387378279</v>
+        <v>36.0630387388995</v>
       </c>
       <c r="H77" t="n">
-        <v>35.0306331117203</v>
+        <v>35.0306331127908</v>
       </c>
       <c r="I77" t="n">
-        <v>34.0599793831414</v>
+        <v>34.0599793842099</v>
       </c>
       <c r="J77" t="n">
-        <v>34.0599793831414</v>
+        <v>34.0599793842099</v>
       </c>
       <c r="K77" t="n">
-        <v>-9.63114166167878</v>
+        <v>-9.63114166141492</v>
       </c>
     </row>
     <row r="78">
@@ -18833,31 +18833,31 @@
         <v>88</v>
       </c>
       <c r="C78" t="n">
-        <v>25.8751498714063</v>
+        <v>25.8751498720327</v>
       </c>
       <c r="D78" t="n">
-        <v>25.3390625781782</v>
+        <v>25.339062578804</v>
       </c>
       <c r="E78" t="n">
-        <v>20.9172566674633</v>
+        <v>20.917256668085</v>
       </c>
       <c r="F78" t="n">
-        <v>19.0200288736462</v>
+        <v>19.0200288742664</v>
       </c>
       <c r="G78" t="n">
-        <v>17.9715207486414</v>
+        <v>17.9715207492602</v>
       </c>
       <c r="H78" t="n">
-        <v>16.3346957968437</v>
+        <v>16.3346957974604</v>
       </c>
       <c r="I78" t="n">
-        <v>17.4567858057125</v>
+        <v>17.4567858063304</v>
       </c>
       <c r="J78" t="n">
-        <v>17.4567858057125</v>
+        <v>17.4567858063304</v>
       </c>
       <c r="K78" t="n">
-        <v>-32.5345519060996</v>
+        <v>-32.534551905345</v>
       </c>
     </row>
     <row r="79">
@@ -18868,31 +18868,31 @@
         <v>89</v>
       </c>
       <c r="C79" t="n">
-        <v>28.4362543631532</v>
+        <v>28.4362543647189</v>
       </c>
       <c r="D79" t="n">
-        <v>28.0322162640903</v>
+        <v>28.0322162653904</v>
       </c>
       <c r="E79" t="n">
-        <v>30.0580568178142</v>
+        <v>30.0580568193816</v>
       </c>
       <c r="F79" t="n">
-        <v>30.6220706888286</v>
+        <v>30.6220706903967</v>
       </c>
       <c r="G79" t="n">
-        <v>29.3176089764065</v>
+        <v>29.3176089779731</v>
       </c>
       <c r="H79" t="n">
-        <v>29.5635021760816</v>
+        <v>29.5635021776491</v>
       </c>
       <c r="I79" t="n">
-        <v>30.438074800506</v>
+        <v>30.438074802076</v>
       </c>
       <c r="J79" t="n">
-        <v>30.438074800506</v>
+        <v>30.438074802076</v>
       </c>
       <c r="K79" t="n">
-        <v>7.03967692716485</v>
+        <v>7.03967692679255</v>
       </c>
     </row>
     <row r="80">
@@ -18903,31 +18903,31 @@
         <v>90</v>
       </c>
       <c r="C80" t="n">
-        <v>55.7515534478117</v>
+        <v>55.7515534487584</v>
       </c>
       <c r="D80" t="n">
-        <v>56.0986526481824</v>
+        <v>56.0986526492043</v>
       </c>
       <c r="E80" t="n">
-        <v>55.702507788606</v>
+        <v>55.7025077897026</v>
       </c>
       <c r="F80" t="n">
-        <v>55.3355097980199</v>
+        <v>55.3355097991163</v>
       </c>
       <c r="G80" t="n">
-        <v>55.2972804214138</v>
+        <v>55.2972804225097</v>
       </c>
       <c r="H80" t="n">
-        <v>54.9699402810198</v>
+        <v>54.9699402821145</v>
       </c>
       <c r="I80" t="n">
-        <v>55.879148733141</v>
+        <v>55.8791487342368</v>
       </c>
       <c r="J80" t="n">
-        <v>55.879148733141</v>
+        <v>55.8791487342368</v>
       </c>
       <c r="K80" t="n">
-        <v>0.228864089766989</v>
+        <v>0.228864090030445</v>
       </c>
     </row>
     <row r="81">
@@ -18938,31 +18938,31 @@
         <v>91</v>
       </c>
       <c r="C81" t="n">
-        <v>33.9243590765168</v>
+        <v>33.9243590774685</v>
       </c>
       <c r="D81" t="n">
-        <v>32.709550448394</v>
+        <v>32.7095504492584</v>
       </c>
       <c r="E81" t="n">
-        <v>31.3836719070915</v>
+        <v>31.3836719080417</v>
       </c>
       <c r="F81" t="n">
-        <v>31.1326987963957</v>
+        <v>31.1326987973456</v>
       </c>
       <c r="G81" t="n">
-        <v>30.9586531749325</v>
+        <v>30.9586531758818</v>
       </c>
       <c r="H81" t="n">
-        <v>29.9757299936671</v>
+        <v>29.9757299946154</v>
       </c>
       <c r="I81" t="n">
-        <v>29.7429369208784</v>
+        <v>29.7429369218259</v>
       </c>
       <c r="J81" t="n">
-        <v>29.7429369208784</v>
+        <v>29.7429369218259</v>
       </c>
       <c r="K81" t="n">
-        <v>-12.3257218985542</v>
+        <v>-12.3257218982209</v>
       </c>
     </row>
     <row r="82">
@@ -18973,31 +18973,31 @@
         <v>92</v>
       </c>
       <c r="C82" t="n">
-        <v>45.0275235560942</v>
+        <v>45.0275235569885</v>
       </c>
       <c r="D82" t="n">
-        <v>47.593087296597</v>
+        <v>47.5930872974491</v>
       </c>
       <c r="E82" t="n">
-        <v>46.7630424883025</v>
+        <v>46.7630424891537</v>
       </c>
       <c r="F82" t="n">
-        <v>46.9480554813404</v>
+        <v>46.948055482192</v>
       </c>
       <c r="G82" t="n">
-        <v>46.4946948081029</v>
+        <v>46.4946948089538</v>
       </c>
       <c r="H82" t="n">
-        <v>46.8742989292849</v>
+        <v>46.8742989301354</v>
       </c>
       <c r="I82" t="n">
-        <v>45.009738548314</v>
+        <v>45.0097385491619</v>
       </c>
       <c r="J82" t="n">
-        <v>45.009738548314</v>
+        <v>45.0097385491619</v>
       </c>
       <c r="K82" t="n">
-        <v>-0.039498081119127</v>
+        <v>-0.0394980812216561</v>
       </c>
     </row>
     <row r="83">
@@ -19008,31 +19008,31 @@
         <v>93</v>
       </c>
       <c r="C83" t="n">
-        <v>45.0275235560942</v>
+        <v>45.0275235569885</v>
       </c>
       <c r="D83" t="n">
-        <v>47.593087296597</v>
+        <v>47.5930872974491</v>
       </c>
       <c r="E83" t="n">
-        <v>46.7630424883025</v>
+        <v>46.7630424891537</v>
       </c>
       <c r="F83" t="n">
-        <v>46.9480554813404</v>
+        <v>46.948055482192</v>
       </c>
       <c r="G83" t="n">
-        <v>46.4946948081029</v>
+        <v>46.4946948089538</v>
       </c>
       <c r="H83" t="n">
-        <v>46.8742989292849</v>
+        <v>46.8742989301354</v>
       </c>
       <c r="I83" t="n">
-        <v>45.009738548314</v>
+        <v>45.0097385491619</v>
       </c>
       <c r="J83" t="n">
-        <v>45.009738548314</v>
+        <v>45.0097385491619</v>
       </c>
       <c r="K83" t="n">
-        <v>-0.039498081119127</v>
+        <v>-0.0394980812216561</v>
       </c>
     </row>
     <row r="84">
@@ -19043,31 +19043,31 @@
         <v>94</v>
       </c>
       <c r="C84" t="n">
-        <v>50.266903042771</v>
+        <v>50.2669030436333</v>
       </c>
       <c r="D84" t="n">
-        <v>50.2754550906315</v>
+        <v>50.275455091544</v>
       </c>
       <c r="E84" t="n">
-        <v>49.7727633018882</v>
+        <v>49.7727633028594</v>
       </c>
       <c r="F84" t="n">
-        <v>49.7187620782716</v>
+        <v>49.7187620792431</v>
       </c>
       <c r="G84" t="n">
-        <v>49.6911618895162</v>
+        <v>49.6911618904871</v>
       </c>
       <c r="H84" t="n">
-        <v>49.2942329299556</v>
+        <v>49.2942329309253</v>
       </c>
       <c r="I84" t="n">
-        <v>50.2735006098857</v>
+        <v>50.2735006108565</v>
       </c>
       <c r="J84" t="n">
-        <v>50.2735006098857</v>
+        <v>50.2735006108565</v>
       </c>
       <c r="K84" t="n">
-        <v>0.0131250717975817</v>
+        <v>0.0131250720129206</v>
       </c>
     </row>
     <row r="85">
@@ -19078,31 +19078,31 @@
         <v>95</v>
       </c>
       <c r="C85" t="n">
-        <v>51.3596618045703</v>
+        <v>51.3596618054514</v>
       </c>
       <c r="D85" t="n">
-        <v>51.3551984195005</v>
+        <v>51.3551984204327</v>
       </c>
       <c r="E85" t="n">
-        <v>50.8492722276489</v>
+        <v>50.8492722286412</v>
       </c>
       <c r="F85" t="n">
-        <v>50.7501760782646</v>
+        <v>50.7501760792572</v>
       </c>
       <c r="G85" t="n">
-        <v>50.7195478417317</v>
+        <v>50.7195478427236</v>
       </c>
       <c r="H85" t="n">
-        <v>50.3278141815984</v>
+        <v>50.3278141825891</v>
       </c>
       <c r="I85" t="n">
-        <v>51.2838623372493</v>
+        <v>51.2838623382411</v>
       </c>
       <c r="J85" t="n">
-        <v>51.2838623372493</v>
+        <v>51.2838623382411</v>
       </c>
       <c r="K85" t="n">
-        <v>-0.14758560445628</v>
+        <v>-0.147585604238376</v>
       </c>
     </row>
     <row r="86">
@@ -19113,31 +19113,31 @@
         <v>96</v>
       </c>
       <c r="C86" t="n">
-        <v>50.266903042771</v>
+        <v>50.2669030436333</v>
       </c>
       <c r="D86" t="n">
-        <v>50.2754550906315</v>
+        <v>50.275455091544</v>
       </c>
       <c r="E86" t="n">
-        <v>49.7727633018882</v>
+        <v>49.7727633028594</v>
       </c>
       <c r="F86" t="n">
-        <v>49.7187620782716</v>
+        <v>49.7187620792431</v>
       </c>
       <c r="G86" t="n">
-        <v>49.6911618895162</v>
+        <v>49.6911618904871</v>
       </c>
       <c r="H86" t="n">
-        <v>49.2942329299556</v>
+        <v>49.2942329309253</v>
       </c>
       <c r="I86" t="n">
-        <v>50.2735006098857</v>
+        <v>50.2735006108565</v>
       </c>
       <c r="J86" t="n">
-        <v>50.2735006098857</v>
+        <v>50.2735006108565</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0131250717975817</v>
+        <v>0.0131250720129206</v>
       </c>
     </row>
     <row r="87">
@@ -19148,31 +19148,31 @@
         <v>97</v>
       </c>
       <c r="C87" t="n">
-        <v>37.1033584199663</v>
+        <v>37.1033584209417</v>
       </c>
       <c r="D87" t="n">
-        <v>37.3942103722744</v>
+        <v>37.3942103730433</v>
       </c>
       <c r="E87" t="n">
-        <v>37.288570746496</v>
+        <v>37.2885707471752</v>
       </c>
       <c r="F87" t="n">
-        <v>36.695375309086</v>
+        <v>36.6953753097733</v>
       </c>
       <c r="G87" t="n">
-        <v>36.3366631930713</v>
+        <v>36.3366631937573</v>
       </c>
       <c r="H87" t="n">
-        <v>36.6936377764392</v>
+        <v>36.6936377771257</v>
       </c>
       <c r="I87" t="n">
-        <v>36.0891125944611</v>
+        <v>36.0891125951463</v>
       </c>
       <c r="J87" t="n">
-        <v>36.0891125944611</v>
+        <v>36.0891125951463</v>
       </c>
       <c r="K87" t="n">
-        <v>-2.73356878917835</v>
+        <v>-2.73356878988876</v>
       </c>
     </row>
     <row r="88">
@@ -19183,31 +19183,31 @@
         <v>98</v>
       </c>
       <c r="C88" t="n">
-        <v>44.1879310661213</v>
+        <v>44.1879310670975</v>
       </c>
       <c r="D88" t="n">
-        <v>44.5127619597917</v>
+        <v>44.5127619607123</v>
       </c>
       <c r="E88" t="n">
-        <v>44.2553294430384</v>
+        <v>44.2553294439218</v>
       </c>
       <c r="F88" t="n">
-        <v>44.1673040906696</v>
+        <v>44.1673040915563</v>
       </c>
       <c r="G88" t="n">
-        <v>43.9941050551862</v>
+        <v>43.9941050560722</v>
       </c>
       <c r="H88" t="n">
-        <v>43.9232070412563</v>
+        <v>43.9232070421418</v>
       </c>
       <c r="I88" t="n">
-        <v>44.2651805292826</v>
+        <v>44.2651805301684</v>
       </c>
       <c r="J88" t="n">
-        <v>44.2651805292826</v>
+        <v>44.2651805301684</v>
       </c>
       <c r="K88" t="n">
-        <v>0.174820276255461</v>
+        <v>0.174820276047005</v>
       </c>
     </row>
   </sheetData>
